--- a/question-4/P4-medicaltourism.xlsx
+++ b/question-4/P4-medicaltourism.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/federicopozzi/Documents/GitHub/A/dd16-phase2-template-master/question-4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8EC64D4-A646-BF4A-A8D7-138671787A27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05005AC5-BAF9-F14B-8573-E3476A450D16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3984,8 +3984,8 @@
   <dimension ref="A1:E843"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F47" sqref="F47"/>
+      <pane ySplit="1" topLeftCell="A356" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G387" sqref="G387"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4016,7 +4016,7 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="16" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>332</v>
@@ -4024,16 +4024,16 @@
       <c r="C2" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>333</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>332</v>
@@ -4050,7 +4050,7 @@
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="16" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>332</v>
@@ -4058,11 +4058,11 @@
       <c r="C4" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>333</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4075,7 +4075,7 @@
       <c r="C5" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>235</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -4194,7 +4194,7 @@
       <c r="C12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -4279,7 +4279,7 @@
       <c r="C17" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E17" s="2" t="s">
@@ -4296,7 +4296,7 @@
       <c r="C18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -4313,7 +4313,7 @@
       <c r="C19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E19" s="2" t="s">
@@ -4330,7 +4330,7 @@
       <c r="C20" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E20" s="2" t="s">
@@ -4347,7 +4347,7 @@
       <c r="C21" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E21" s="2" t="s">
@@ -4381,7 +4381,7 @@
       <c r="C23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="3" t="s">
         <v>400</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -4939,13 +4939,13 @@
       <c r="B56" s="16" t="s">
         <v>425</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D56" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="E56" s="3" t="s">
         <v>421</v>
       </c>
     </row>
@@ -5095,7 +5095,7 @@
       <c r="C65" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D65" s="3" t="s">
         <v>423</v>
       </c>
       <c r="E65" s="2" t="s">
@@ -5138,36 +5138,36 @@
     </row>
     <row r="68" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A68" s="16" t="s">
-        <v>418</v>
+        <v>526</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>419</v>
+        <v>527</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D68" s="7" t="s">
         <v>420</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A69" s="16" t="s">
-        <v>526</v>
+        <v>418</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>527</v>
+        <v>419</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D69" s="7" t="s">
+      <c r="D69" s="3" t="s">
         <v>420</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>528</v>
+        <v>421</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -5255,7 +5255,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A75" s="16" t="s">
         <v>47</v>
       </c>
@@ -5347,7 +5347,7 @@
       <c r="C80" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="D80" s="3" t="s">
         <v>292</v>
       </c>
       <c r="E80" s="2" t="s">
@@ -5364,7 +5364,7 @@
       <c r="C81" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="D81" s="3" t="s">
         <v>552</v>
       </c>
       <c r="E81" s="2" t="s">
@@ -5384,7 +5384,7 @@
       <c r="D82" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="E82" s="2" t="s">
+      <c r="E82" s="3" t="s">
         <v>552</v>
       </c>
     </row>
@@ -5463,7 +5463,7 @@
       <c r="B87" s="17" t="s">
         <v>552</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" s="3" t="s">
         <v>552</v>
       </c>
       <c r="D87" s="3" t="s">
@@ -5789,7 +5789,7 @@
       <c r="C106" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="D106" s="2" t="s">
+      <c r="D106" s="3" t="s">
         <v>552</v>
       </c>
       <c r="E106" s="2" t="s">
@@ -5806,7 +5806,7 @@
       <c r="C107" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="D107" s="2" t="s">
+      <c r="D107" s="3" t="s">
         <v>552</v>
       </c>
       <c r="E107" s="2" t="s">
@@ -6160,7 +6160,7 @@
       <c r="B128" s="17" t="s">
         <v>552</v>
       </c>
-      <c r="C128" s="2" t="s">
+      <c r="C128" s="3" t="s">
         <v>552</v>
       </c>
       <c r="D128" s="2" t="s">
@@ -6333,7 +6333,7 @@
       <c r="C138" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="D138" s="2" t="s">
+      <c r="D138" s="3" t="s">
         <v>552</v>
       </c>
       <c r="E138" s="2" t="s">
@@ -7935,7 +7935,7 @@
         <v>63</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="233" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -7986,7 +7986,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A236" s="16" t="s">
         <v>44</v>
       </c>
@@ -8054,7 +8054,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A240" s="16" t="s">
         <v>278</v>
       </c>
@@ -8190,14 +8190,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A248" s="16" t="s">
         <v>516</v>
       </c>
       <c r="B248" s="16" t="s">
         <v>512</v>
       </c>
-      <c r="C248" s="2" t="s">
+      <c r="C248" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D248" s="5" t="s">
@@ -8901,7 +8901,7 @@
         <v>59</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="290" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -9002,7 +9002,7 @@
       <c r="D295" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="E295" s="2" t="s">
+      <c r="E295" s="3" t="s">
         <v>413</v>
       </c>
     </row>
@@ -9104,7 +9104,7 @@
       <c r="D301" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="E301" s="2" t="s">
+      <c r="E301" s="3" t="s">
         <v>339</v>
       </c>
     </row>
@@ -9118,14 +9118,14 @@
       <c r="C302" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="D302" s="2" t="s">
+      <c r="D302" s="3" t="s">
         <v>382</v>
       </c>
       <c r="E302" s="2" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="303" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A303" s="16" t="s">
         <v>189</v>
       </c>
@@ -9135,7 +9135,7 @@
       <c r="C303" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="D303" s="2" t="s">
+      <c r="D303" s="3" t="s">
         <v>192</v>
       </c>
       <c r="E303" s="2" t="s">
@@ -9144,27 +9144,27 @@
     </row>
     <row r="304" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A304" s="16" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="B304" s="16" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D304" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D304" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>106</v>
+        <v>5</v>
       </c>
     </row>
     <row r="305" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A305" s="16" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B305" s="16" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>3</v>
@@ -9178,15 +9178,15 @@
     </row>
     <row r="306" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A306" s="16" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B306" s="16" t="s">
-        <v>122</v>
+        <v>19</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D306" s="2" t="s">
+      <c r="D306" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E306" s="2" t="s">
@@ -9195,15 +9195,15 @@
     </row>
     <row r="307" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A307" s="16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B307" s="16" t="s">
-        <v>19</v>
+        <v>125</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D307" s="2" t="s">
+      <c r="D307" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E307" s="2" t="s">
@@ -9212,24 +9212,24 @@
     </row>
     <row r="308" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A308" s="16" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B308" s="16" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D308" s="2" t="s">
+      <c r="D308" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E308" s="2" t="s">
+      <c r="E308" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="309" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A309" s="16" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B309" s="16" t="s">
         <v>127</v>
@@ -9237,7 +9237,7 @@
       <c r="C309" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D309" s="2" t="s">
+      <c r="D309" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E309" s="4" t="s">
@@ -9246,24 +9246,24 @@
     </row>
     <row r="310" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A310" s="16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B310" s="16" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D310" s="2" t="s">
+      <c r="D310" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E310" s="4" t="s">
+      <c r="E310" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="311" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A311" s="16" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B311" s="16" t="s">
         <v>130</v>
@@ -9271,7 +9271,7 @@
       <c r="C311" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D311" s="2" t="s">
+      <c r="D311" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E311" s="2" t="s">
@@ -9280,15 +9280,15 @@
     </row>
     <row r="312" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A312" s="16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B312" s="16" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D312" s="2" t="s">
+      <c r="D312" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E312" s="2" t="s">
@@ -9297,15 +9297,15 @@
     </row>
     <row r="313" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A313" s="16" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B313" s="16" t="s">
-        <v>133</v>
+        <v>19</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D313" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D313" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E313" s="2" t="s">
@@ -9314,13 +9314,13 @@
     </row>
     <row r="314" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A314" s="16" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B314" s="16" t="s">
-        <v>19</v>
+        <v>137</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D314" s="2" t="s">
         <v>4</v>
@@ -9331,15 +9331,15 @@
     </row>
     <row r="315" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A315" s="16" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B315" s="16" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D315" s="2" t="s">
+      <c r="D315" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E315" s="2" t="s">
@@ -9348,13 +9348,13 @@
     </row>
     <row r="316" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A316" s="16" t="s">
-        <v>139</v>
+        <v>78</v>
       </c>
       <c r="B316" s="16" t="s">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="D316" s="2" t="s">
         <v>4</v>
@@ -9365,13 +9365,13 @@
     </row>
     <row r="317" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A317" s="16" t="s">
-        <v>78</v>
+        <v>141</v>
       </c>
       <c r="B317" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C317" s="2" t="s">
-        <v>80</v>
+        <v>142</v>
+      </c>
+      <c r="C317" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="D317" s="2" t="s">
         <v>4</v>
@@ -9382,13 +9382,13 @@
     </row>
     <row r="318" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A318" s="16" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B318" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="C318" s="4" t="s">
-        <v>90</v>
+        <v>144</v>
+      </c>
+      <c r="C318" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="D318" s="2" t="s">
         <v>4</v>
@@ -9399,10 +9399,10 @@
     </row>
     <row r="319" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A319" s="16" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B319" s="16" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>115</v>
@@ -9416,10 +9416,10 @@
     </row>
     <row r="320" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A320" s="16" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B320" s="16" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>115</v>
@@ -9433,10 +9433,10 @@
     </row>
     <row r="321" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A321" s="16" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B321" s="16" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>115</v>
@@ -9450,7 +9450,7 @@
     </row>
     <row r="322" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A322" s="16" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B322" s="16" t="s">
         <v>150</v>
@@ -9467,7 +9467,7 @@
     </row>
     <row r="323" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A323" s="16" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B323" s="16" t="s">
         <v>150</v>
@@ -9484,10 +9484,10 @@
     </row>
     <row r="324" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A324" s="16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B324" s="16" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>115</v>
@@ -9501,7 +9501,7 @@
     </row>
     <row r="325" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A325" s="16" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B325" s="16" t="s">
         <v>154</v>
@@ -9518,7 +9518,7 @@
     </row>
     <row r="326" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A326" s="16" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B326" s="16" t="s">
         <v>154</v>
@@ -9535,10 +9535,10 @@
     </row>
     <row r="327" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A327" s="16" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B327" s="16" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>115</v>
@@ -9552,12 +9552,12 @@
     </row>
     <row r="328" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A328" s="16" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B328" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="C328" s="2" t="s">
+      <c r="C328" s="3" t="s">
         <v>115</v>
       </c>
       <c r="D328" s="2" t="s">
@@ -9569,7 +9569,7 @@
     </row>
     <row r="329" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A329" s="16" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B329" s="16" t="s">
         <v>158</v>
@@ -9586,10 +9586,10 @@
     </row>
     <row r="330" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A330" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B330" s="16" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>115</v>
@@ -9603,10 +9603,10 @@
     </row>
     <row r="331" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A331" s="16" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B331" s="16" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>115</v>
@@ -9620,10 +9620,10 @@
     </row>
     <row r="332" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A332" s="16" t="s">
-        <v>163</v>
+        <v>114</v>
       </c>
       <c r="B332" s="16" t="s">
-        <v>164</v>
+        <v>112</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>115</v>
@@ -9637,10 +9637,10 @@
     </row>
     <row r="333" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A333" s="16" t="s">
-        <v>114</v>
+        <v>165</v>
       </c>
       <c r="B333" s="16" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>115</v>
@@ -9648,13 +9648,13 @@
       <c r="D333" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E333" s="2" t="s">
+      <c r="E333" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="334" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A334" s="16" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B334" s="16" t="s">
         <v>148</v>
@@ -9665,16 +9665,16 @@
       <c r="D334" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E334" s="2" t="s">
+      <c r="E334" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="335" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A335" s="16" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B335" s="16" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>115</v>
@@ -9688,10 +9688,10 @@
     </row>
     <row r="336" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A336" s="16" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B336" s="16" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>115</v>
@@ -9705,13 +9705,13 @@
     </row>
     <row r="337" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A337" s="16" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B337" s="16" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="D337" s="2" t="s">
         <v>4</v>
@@ -9722,10 +9722,10 @@
     </row>
     <row r="338" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A338" s="16" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B338" s="16" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>25</v>
@@ -9739,10 +9739,10 @@
     </row>
     <row r="339" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A339" s="16" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B339" s="16" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>25</v>
@@ -9756,10 +9756,10 @@
     </row>
     <row r="340" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A340" s="16" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B340" s="16" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>25</v>
@@ -9773,7 +9773,7 @@
     </row>
     <row r="341" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A341" s="16" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B341" s="16" t="s">
         <v>178</v>
@@ -9790,13 +9790,13 @@
     </row>
     <row r="342" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A342" s="16" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B342" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="C342" s="2" t="s">
-        <v>25</v>
+        <v>144</v>
+      </c>
+      <c r="C342" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="D342" s="2" t="s">
         <v>4</v>
@@ -9807,7 +9807,7 @@
     </row>
     <row r="343" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A343" s="16" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B343" s="16" t="s">
         <v>144</v>
@@ -9824,10 +9824,10 @@
     </row>
     <row r="344" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A344" s="16" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B344" s="16" t="s">
-        <v>144</v>
+        <v>183</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>77</v>
@@ -9841,7 +9841,7 @@
     </row>
     <row r="345" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A345" s="16" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B345" s="16" t="s">
         <v>183</v>
@@ -9858,27 +9858,27 @@
     </row>
     <row r="346" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A346" s="16" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B346" s="16" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="D346" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E346" s="2" t="s">
+      <c r="E346" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="347" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A347" s="16" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B347" s="16" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C347" s="2" t="s">
         <v>39</v>
@@ -9886,25 +9886,25 @@
       <c r="D347" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E347" s="4" t="s">
+      <c r="E347" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="348" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A348" s="16" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="B348" s="16" t="s">
-        <v>188</v>
+        <v>79</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="D348" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E348" s="2" t="s">
-        <v>5</v>
+        <v>106</v>
       </c>
     </row>
     <row r="349" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -10294,7 +10294,7 @@
       <c r="D371" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="E371" s="2" t="s">
+      <c r="E371" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -10504,41 +10504,41 @@
     </row>
     <row r="384" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A384" s="16" t="s">
-        <v>206</v>
+        <v>374</v>
       </c>
       <c r="B384" s="16" t="s">
-        <v>207</v>
+        <v>375</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>208</v>
+        <v>90</v>
       </c>
       <c r="D384" s="2" t="s">
         <v>209</v>
       </c>
       <c r="E384" s="2" t="s">
-        <v>210</v>
+        <v>376</v>
       </c>
     </row>
     <row r="385" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A385" s="16" t="s">
-        <v>211</v>
+        <v>377</v>
       </c>
       <c r="B385" s="16" t="s">
-        <v>207</v>
+        <v>375</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>208</v>
+        <v>90</v>
       </c>
       <c r="D385" s="2" t="s">
         <v>209</v>
       </c>
       <c r="E385" s="2" t="s">
-        <v>210</v>
+        <v>376</v>
       </c>
     </row>
     <row r="386" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A386" s="16" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="B386" s="16" t="s">
         <v>375</v>
@@ -10555,35 +10555,35 @@
     </row>
     <row r="387" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A387" s="16" t="s">
-        <v>377</v>
+        <v>206</v>
       </c>
       <c r="B387" s="16" t="s">
-        <v>375</v>
+        <v>207</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D387" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D387" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="E387" s="2" t="s">
+      <c r="E387" s="3" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="388" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A388" s="16" t="s">
-        <v>378</v>
+        <v>211</v>
       </c>
       <c r="B388" s="16" t="s">
-        <v>375</v>
+        <v>207</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>90</v>
+        <v>208</v>
       </c>
       <c r="D388" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="E388" s="2" t="s">
+      <c r="E388" s="3" t="s">
         <v>376</v>
       </c>
     </row>
@@ -10665,10 +10665,10 @@
       <c r="C393" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D393" s="2" t="s">
+      <c r="D393" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E393" s="2" t="s">
+      <c r="E393" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -10685,7 +10685,7 @@
       <c r="D394" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E394" s="2" t="s">
+      <c r="E394" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -10730,10 +10730,10 @@
       <c r="B397" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C397" s="2" t="s">
+      <c r="C397" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D397" s="2" t="s">
+      <c r="D397" s="3" t="s">
         <v>109</v>
       </c>
       <c r="E397" s="2" t="s">
@@ -10759,21 +10759,21 @@
     </row>
     <row r="399" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A399" s="16" t="s">
-        <v>406</v>
+        <v>538</v>
       </c>
       <c r="B399" s="16" t="s">
-        <v>407</v>
+        <v>14</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="E399" s="2" t="s">
-        <v>408</v>
+        <v>15</v>
       </c>
     </row>
     <row r="400" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A400" s="16" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B400" s="16" t="s">
         <v>407</v>
@@ -10787,16 +10787,16 @@
     </row>
     <row r="401" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A401" s="16" t="s">
-        <v>538</v>
+        <v>409</v>
       </c>
       <c r="B401" s="16" t="s">
-        <v>14</v>
+        <v>407</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="E401" s="2" t="s">
-        <v>15</v>
+        <v>408</v>
       </c>
     </row>
     <row r="402" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -12185,8 +12185,8 @@
     <hyperlink ref="B287" r:id="rId42" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
     <hyperlink ref="A78" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
     <hyperlink ref="B78" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
-    <hyperlink ref="A304" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
-    <hyperlink ref="B304" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
+    <hyperlink ref="A348" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
+    <hyperlink ref="B348" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
     <hyperlink ref="A393" r:id="rId47" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
     <hyperlink ref="B393" r:id="rId48" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
     <hyperlink ref="A394" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
@@ -12199,94 +12199,94 @@
     <hyperlink ref="B397" r:id="rId56" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
     <hyperlink ref="A398" r:id="rId57" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
     <hyperlink ref="B398" r:id="rId58" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
-    <hyperlink ref="A305" r:id="rId59" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
-    <hyperlink ref="B305" r:id="rId60" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
-    <hyperlink ref="A306" r:id="rId61" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
-    <hyperlink ref="B306" r:id="rId62" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
-    <hyperlink ref="A307" r:id="rId63" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
-    <hyperlink ref="B307" r:id="rId64" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
-    <hyperlink ref="A308" r:id="rId65" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
-    <hyperlink ref="B308" r:id="rId66" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
-    <hyperlink ref="A309" r:id="rId67" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
-    <hyperlink ref="B309" r:id="rId68" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
-    <hyperlink ref="A310" r:id="rId69" xr:uid="{00000000-0004-0000-0100-000046000000}"/>
-    <hyperlink ref="B310" r:id="rId70" xr:uid="{00000000-0004-0000-0100-000047000000}"/>
-    <hyperlink ref="A311" r:id="rId71" xr:uid="{00000000-0004-0000-0100-000048000000}"/>
-    <hyperlink ref="B311" r:id="rId72" xr:uid="{00000000-0004-0000-0100-000049000000}"/>
-    <hyperlink ref="A312" r:id="rId73" xr:uid="{00000000-0004-0000-0100-00004A000000}"/>
-    <hyperlink ref="B312" r:id="rId74" xr:uid="{00000000-0004-0000-0100-00004B000000}"/>
-    <hyperlink ref="A313" r:id="rId75" xr:uid="{00000000-0004-0000-0100-00004C000000}"/>
-    <hyperlink ref="B313" r:id="rId76" xr:uid="{00000000-0004-0000-0100-00004D000000}"/>
-    <hyperlink ref="A314" r:id="rId77" xr:uid="{00000000-0004-0000-0100-00004E000000}"/>
-    <hyperlink ref="B314" r:id="rId78" xr:uid="{00000000-0004-0000-0100-00004F000000}"/>
-    <hyperlink ref="A315" r:id="rId79" xr:uid="{00000000-0004-0000-0100-000050000000}"/>
-    <hyperlink ref="B315" r:id="rId80" xr:uid="{00000000-0004-0000-0100-000051000000}"/>
-    <hyperlink ref="A316" r:id="rId81" xr:uid="{00000000-0004-0000-0100-000052000000}"/>
-    <hyperlink ref="B316" r:id="rId82" xr:uid="{00000000-0004-0000-0100-000053000000}"/>
-    <hyperlink ref="A317" r:id="rId83" xr:uid="{00000000-0004-0000-0100-000054000000}"/>
-    <hyperlink ref="B317" r:id="rId84" xr:uid="{00000000-0004-0000-0100-000055000000}"/>
-    <hyperlink ref="A318" r:id="rId85" xr:uid="{00000000-0004-0000-0100-000056000000}"/>
-    <hyperlink ref="B318" r:id="rId86" xr:uid="{00000000-0004-0000-0100-000057000000}"/>
-    <hyperlink ref="A319" r:id="rId87" xr:uid="{00000000-0004-0000-0100-000058000000}"/>
-    <hyperlink ref="B319" r:id="rId88" xr:uid="{00000000-0004-0000-0100-000059000000}"/>
-    <hyperlink ref="A320" r:id="rId89" xr:uid="{00000000-0004-0000-0100-00005A000000}"/>
-    <hyperlink ref="B320" r:id="rId90" xr:uid="{00000000-0004-0000-0100-00005B000000}"/>
-    <hyperlink ref="A321" r:id="rId91" xr:uid="{00000000-0004-0000-0100-00005C000000}"/>
-    <hyperlink ref="B321" r:id="rId92" xr:uid="{00000000-0004-0000-0100-00005D000000}"/>
-    <hyperlink ref="A322" r:id="rId93" xr:uid="{00000000-0004-0000-0100-00005E000000}"/>
-    <hyperlink ref="B322" r:id="rId94" xr:uid="{00000000-0004-0000-0100-00005F000000}"/>
-    <hyperlink ref="A323" r:id="rId95" xr:uid="{00000000-0004-0000-0100-000060000000}"/>
-    <hyperlink ref="B323" r:id="rId96" xr:uid="{00000000-0004-0000-0100-000061000000}"/>
-    <hyperlink ref="A324" r:id="rId97" xr:uid="{00000000-0004-0000-0100-000062000000}"/>
-    <hyperlink ref="B324" r:id="rId98" xr:uid="{00000000-0004-0000-0100-000063000000}"/>
-    <hyperlink ref="A325" r:id="rId99" xr:uid="{00000000-0004-0000-0100-000064000000}"/>
-    <hyperlink ref="B325" r:id="rId100" xr:uid="{00000000-0004-0000-0100-000065000000}"/>
-    <hyperlink ref="A326" r:id="rId101" xr:uid="{00000000-0004-0000-0100-000066000000}"/>
-    <hyperlink ref="B326" r:id="rId102" xr:uid="{00000000-0004-0000-0100-000067000000}"/>
-    <hyperlink ref="A327" r:id="rId103" xr:uid="{00000000-0004-0000-0100-000068000000}"/>
-    <hyperlink ref="B327" r:id="rId104" xr:uid="{00000000-0004-0000-0100-000069000000}"/>
-    <hyperlink ref="A328" r:id="rId105" xr:uid="{00000000-0004-0000-0100-00006A000000}"/>
-    <hyperlink ref="B328" r:id="rId106" xr:uid="{00000000-0004-0000-0100-00006B000000}"/>
-    <hyperlink ref="A329" r:id="rId107" xr:uid="{00000000-0004-0000-0100-00006C000000}"/>
-    <hyperlink ref="B329" r:id="rId108" xr:uid="{00000000-0004-0000-0100-00006D000000}"/>
-    <hyperlink ref="A330" r:id="rId109" xr:uid="{00000000-0004-0000-0100-00006E000000}"/>
-    <hyperlink ref="B330" r:id="rId110" xr:uid="{00000000-0004-0000-0100-00006F000000}"/>
-    <hyperlink ref="A331" r:id="rId111" xr:uid="{00000000-0004-0000-0100-000070000000}"/>
-    <hyperlink ref="B331" r:id="rId112" xr:uid="{00000000-0004-0000-0100-000071000000}"/>
-    <hyperlink ref="A332" r:id="rId113" xr:uid="{00000000-0004-0000-0100-000072000000}"/>
-    <hyperlink ref="B332" r:id="rId114" xr:uid="{00000000-0004-0000-0100-000073000000}"/>
-    <hyperlink ref="A333" r:id="rId115" xr:uid="{00000000-0004-0000-0100-000074000000}"/>
-    <hyperlink ref="B333" r:id="rId116" xr:uid="{00000000-0004-0000-0100-000075000000}"/>
-    <hyperlink ref="A334" r:id="rId117" xr:uid="{00000000-0004-0000-0100-000076000000}"/>
-    <hyperlink ref="B334" r:id="rId118" xr:uid="{00000000-0004-0000-0100-000077000000}"/>
-    <hyperlink ref="A335" r:id="rId119" xr:uid="{00000000-0004-0000-0100-000078000000}"/>
-    <hyperlink ref="B335" r:id="rId120" xr:uid="{00000000-0004-0000-0100-000079000000}"/>
-    <hyperlink ref="A336" r:id="rId121" xr:uid="{00000000-0004-0000-0100-00007A000000}"/>
-    <hyperlink ref="B336" r:id="rId122" xr:uid="{00000000-0004-0000-0100-00007B000000}"/>
-    <hyperlink ref="A337" r:id="rId123" xr:uid="{00000000-0004-0000-0100-00007C000000}"/>
-    <hyperlink ref="B337" r:id="rId124" xr:uid="{00000000-0004-0000-0100-00007D000000}"/>
-    <hyperlink ref="A338" r:id="rId125" xr:uid="{00000000-0004-0000-0100-00007E000000}"/>
-    <hyperlink ref="B338" r:id="rId126" xr:uid="{00000000-0004-0000-0100-00007F000000}"/>
-    <hyperlink ref="A339" r:id="rId127" xr:uid="{00000000-0004-0000-0100-000080000000}"/>
-    <hyperlink ref="B339" r:id="rId128" xr:uid="{00000000-0004-0000-0100-000081000000}"/>
-    <hyperlink ref="A340" r:id="rId129" xr:uid="{00000000-0004-0000-0100-000082000000}"/>
-    <hyperlink ref="B340" r:id="rId130" xr:uid="{00000000-0004-0000-0100-000083000000}"/>
-    <hyperlink ref="A341" r:id="rId131" xr:uid="{00000000-0004-0000-0100-000084000000}"/>
-    <hyperlink ref="B341" r:id="rId132" xr:uid="{00000000-0004-0000-0100-000085000000}"/>
-    <hyperlink ref="A342" r:id="rId133" xr:uid="{00000000-0004-0000-0100-000086000000}"/>
-    <hyperlink ref="B342" r:id="rId134" xr:uid="{00000000-0004-0000-0100-000087000000}"/>
-    <hyperlink ref="A343" r:id="rId135" xr:uid="{00000000-0004-0000-0100-000088000000}"/>
-    <hyperlink ref="B343" r:id="rId136" xr:uid="{00000000-0004-0000-0100-000089000000}"/>
-    <hyperlink ref="A344" r:id="rId137" xr:uid="{00000000-0004-0000-0100-00008A000000}"/>
-    <hyperlink ref="B344" r:id="rId138" xr:uid="{00000000-0004-0000-0100-00008B000000}"/>
-    <hyperlink ref="A345" r:id="rId139" xr:uid="{00000000-0004-0000-0100-00008C000000}"/>
-    <hyperlink ref="B345" r:id="rId140" xr:uid="{00000000-0004-0000-0100-00008D000000}"/>
-    <hyperlink ref="A346" r:id="rId141" xr:uid="{00000000-0004-0000-0100-00008E000000}"/>
-    <hyperlink ref="B346" r:id="rId142" xr:uid="{00000000-0004-0000-0100-00008F000000}"/>
-    <hyperlink ref="A347" r:id="rId143" xr:uid="{00000000-0004-0000-0100-000090000000}"/>
-    <hyperlink ref="B347" r:id="rId144" xr:uid="{00000000-0004-0000-0100-000091000000}"/>
-    <hyperlink ref="A348" r:id="rId145" xr:uid="{00000000-0004-0000-0100-000092000000}"/>
-    <hyperlink ref="B348" r:id="rId146" xr:uid="{00000000-0004-0000-0100-000093000000}"/>
+    <hyperlink ref="A304" r:id="rId59" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
+    <hyperlink ref="B304" r:id="rId60" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
+    <hyperlink ref="A305" r:id="rId61" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
+    <hyperlink ref="B305" r:id="rId62" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
+    <hyperlink ref="A306" r:id="rId63" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
+    <hyperlink ref="B306" r:id="rId64" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
+    <hyperlink ref="A307" r:id="rId65" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
+    <hyperlink ref="B307" r:id="rId66" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
+    <hyperlink ref="A308" r:id="rId67" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
+    <hyperlink ref="B308" r:id="rId68" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
+    <hyperlink ref="A309" r:id="rId69" xr:uid="{00000000-0004-0000-0100-000046000000}"/>
+    <hyperlink ref="B309" r:id="rId70" xr:uid="{00000000-0004-0000-0100-000047000000}"/>
+    <hyperlink ref="A310" r:id="rId71" xr:uid="{00000000-0004-0000-0100-000048000000}"/>
+    <hyperlink ref="B310" r:id="rId72" xr:uid="{00000000-0004-0000-0100-000049000000}"/>
+    <hyperlink ref="A311" r:id="rId73" xr:uid="{00000000-0004-0000-0100-00004A000000}"/>
+    <hyperlink ref="B311" r:id="rId74" xr:uid="{00000000-0004-0000-0100-00004B000000}"/>
+    <hyperlink ref="A312" r:id="rId75" xr:uid="{00000000-0004-0000-0100-00004C000000}"/>
+    <hyperlink ref="B312" r:id="rId76" xr:uid="{00000000-0004-0000-0100-00004D000000}"/>
+    <hyperlink ref="A313" r:id="rId77" xr:uid="{00000000-0004-0000-0100-00004E000000}"/>
+    <hyperlink ref="B313" r:id="rId78" xr:uid="{00000000-0004-0000-0100-00004F000000}"/>
+    <hyperlink ref="A314" r:id="rId79" xr:uid="{00000000-0004-0000-0100-000050000000}"/>
+    <hyperlink ref="B314" r:id="rId80" xr:uid="{00000000-0004-0000-0100-000051000000}"/>
+    <hyperlink ref="A315" r:id="rId81" xr:uid="{00000000-0004-0000-0100-000052000000}"/>
+    <hyperlink ref="B315" r:id="rId82" xr:uid="{00000000-0004-0000-0100-000053000000}"/>
+    <hyperlink ref="A316" r:id="rId83" xr:uid="{00000000-0004-0000-0100-000054000000}"/>
+    <hyperlink ref="B316" r:id="rId84" xr:uid="{00000000-0004-0000-0100-000055000000}"/>
+    <hyperlink ref="A317" r:id="rId85" xr:uid="{00000000-0004-0000-0100-000056000000}"/>
+    <hyperlink ref="B317" r:id="rId86" xr:uid="{00000000-0004-0000-0100-000057000000}"/>
+    <hyperlink ref="A318" r:id="rId87" xr:uid="{00000000-0004-0000-0100-000058000000}"/>
+    <hyperlink ref="B318" r:id="rId88" xr:uid="{00000000-0004-0000-0100-000059000000}"/>
+    <hyperlink ref="A319" r:id="rId89" xr:uid="{00000000-0004-0000-0100-00005A000000}"/>
+    <hyperlink ref="B319" r:id="rId90" xr:uid="{00000000-0004-0000-0100-00005B000000}"/>
+    <hyperlink ref="A320" r:id="rId91" xr:uid="{00000000-0004-0000-0100-00005C000000}"/>
+    <hyperlink ref="B320" r:id="rId92" xr:uid="{00000000-0004-0000-0100-00005D000000}"/>
+    <hyperlink ref="A321" r:id="rId93" xr:uid="{00000000-0004-0000-0100-00005E000000}"/>
+    <hyperlink ref="B321" r:id="rId94" xr:uid="{00000000-0004-0000-0100-00005F000000}"/>
+    <hyperlink ref="A322" r:id="rId95" xr:uid="{00000000-0004-0000-0100-000060000000}"/>
+    <hyperlink ref="B322" r:id="rId96" xr:uid="{00000000-0004-0000-0100-000061000000}"/>
+    <hyperlink ref="A323" r:id="rId97" xr:uid="{00000000-0004-0000-0100-000062000000}"/>
+    <hyperlink ref="B323" r:id="rId98" xr:uid="{00000000-0004-0000-0100-000063000000}"/>
+    <hyperlink ref="A324" r:id="rId99" xr:uid="{00000000-0004-0000-0100-000064000000}"/>
+    <hyperlink ref="B324" r:id="rId100" xr:uid="{00000000-0004-0000-0100-000065000000}"/>
+    <hyperlink ref="A325" r:id="rId101" xr:uid="{00000000-0004-0000-0100-000066000000}"/>
+    <hyperlink ref="B325" r:id="rId102" xr:uid="{00000000-0004-0000-0100-000067000000}"/>
+    <hyperlink ref="A326" r:id="rId103" xr:uid="{00000000-0004-0000-0100-000068000000}"/>
+    <hyperlink ref="B326" r:id="rId104" xr:uid="{00000000-0004-0000-0100-000069000000}"/>
+    <hyperlink ref="A327" r:id="rId105" xr:uid="{00000000-0004-0000-0100-00006A000000}"/>
+    <hyperlink ref="B327" r:id="rId106" xr:uid="{00000000-0004-0000-0100-00006B000000}"/>
+    <hyperlink ref="A328" r:id="rId107" xr:uid="{00000000-0004-0000-0100-00006C000000}"/>
+    <hyperlink ref="B328" r:id="rId108" xr:uid="{00000000-0004-0000-0100-00006D000000}"/>
+    <hyperlink ref="A329" r:id="rId109" xr:uid="{00000000-0004-0000-0100-00006E000000}"/>
+    <hyperlink ref="B329" r:id="rId110" xr:uid="{00000000-0004-0000-0100-00006F000000}"/>
+    <hyperlink ref="A330" r:id="rId111" xr:uid="{00000000-0004-0000-0100-000070000000}"/>
+    <hyperlink ref="B330" r:id="rId112" xr:uid="{00000000-0004-0000-0100-000071000000}"/>
+    <hyperlink ref="A331" r:id="rId113" xr:uid="{00000000-0004-0000-0100-000072000000}"/>
+    <hyperlink ref="B331" r:id="rId114" xr:uid="{00000000-0004-0000-0100-000073000000}"/>
+    <hyperlink ref="A332" r:id="rId115" xr:uid="{00000000-0004-0000-0100-000074000000}"/>
+    <hyperlink ref="B332" r:id="rId116" xr:uid="{00000000-0004-0000-0100-000075000000}"/>
+    <hyperlink ref="A333" r:id="rId117" xr:uid="{00000000-0004-0000-0100-000076000000}"/>
+    <hyperlink ref="B333" r:id="rId118" xr:uid="{00000000-0004-0000-0100-000077000000}"/>
+    <hyperlink ref="A334" r:id="rId119" xr:uid="{00000000-0004-0000-0100-000078000000}"/>
+    <hyperlink ref="B334" r:id="rId120" xr:uid="{00000000-0004-0000-0100-000079000000}"/>
+    <hyperlink ref="A335" r:id="rId121" xr:uid="{00000000-0004-0000-0100-00007A000000}"/>
+    <hyperlink ref="B335" r:id="rId122" xr:uid="{00000000-0004-0000-0100-00007B000000}"/>
+    <hyperlink ref="A336" r:id="rId123" xr:uid="{00000000-0004-0000-0100-00007C000000}"/>
+    <hyperlink ref="B336" r:id="rId124" xr:uid="{00000000-0004-0000-0100-00007D000000}"/>
+    <hyperlink ref="A337" r:id="rId125" xr:uid="{00000000-0004-0000-0100-00007E000000}"/>
+    <hyperlink ref="B337" r:id="rId126" xr:uid="{00000000-0004-0000-0100-00007F000000}"/>
+    <hyperlink ref="A338" r:id="rId127" xr:uid="{00000000-0004-0000-0100-000080000000}"/>
+    <hyperlink ref="B338" r:id="rId128" xr:uid="{00000000-0004-0000-0100-000081000000}"/>
+    <hyperlink ref="A339" r:id="rId129" xr:uid="{00000000-0004-0000-0100-000082000000}"/>
+    <hyperlink ref="B339" r:id="rId130" xr:uid="{00000000-0004-0000-0100-000083000000}"/>
+    <hyperlink ref="A340" r:id="rId131" xr:uid="{00000000-0004-0000-0100-000084000000}"/>
+    <hyperlink ref="B340" r:id="rId132" xr:uid="{00000000-0004-0000-0100-000085000000}"/>
+    <hyperlink ref="A341" r:id="rId133" xr:uid="{00000000-0004-0000-0100-000086000000}"/>
+    <hyperlink ref="B341" r:id="rId134" xr:uid="{00000000-0004-0000-0100-000087000000}"/>
+    <hyperlink ref="A342" r:id="rId135" xr:uid="{00000000-0004-0000-0100-000088000000}"/>
+    <hyperlink ref="B342" r:id="rId136" xr:uid="{00000000-0004-0000-0100-000089000000}"/>
+    <hyperlink ref="A343" r:id="rId137" xr:uid="{00000000-0004-0000-0100-00008A000000}"/>
+    <hyperlink ref="B343" r:id="rId138" xr:uid="{00000000-0004-0000-0100-00008B000000}"/>
+    <hyperlink ref="A344" r:id="rId139" xr:uid="{00000000-0004-0000-0100-00008C000000}"/>
+    <hyperlink ref="B344" r:id="rId140" xr:uid="{00000000-0004-0000-0100-00008D000000}"/>
+    <hyperlink ref="A345" r:id="rId141" xr:uid="{00000000-0004-0000-0100-00008E000000}"/>
+    <hyperlink ref="B345" r:id="rId142" xr:uid="{00000000-0004-0000-0100-00008F000000}"/>
+    <hyperlink ref="A346" r:id="rId143" xr:uid="{00000000-0004-0000-0100-000090000000}"/>
+    <hyperlink ref="B346" r:id="rId144" xr:uid="{00000000-0004-0000-0100-000091000000}"/>
+    <hyperlink ref="A347" r:id="rId145" xr:uid="{00000000-0004-0000-0100-000092000000}"/>
+    <hyperlink ref="B347" r:id="rId146" xr:uid="{00000000-0004-0000-0100-000093000000}"/>
     <hyperlink ref="A303" r:id="rId147" xr:uid="{00000000-0004-0000-0100-000094000000}"/>
     <hyperlink ref="B303" r:id="rId148" xr:uid="{00000000-0004-0000-0100-000095000000}"/>
     <hyperlink ref="A282" r:id="rId149" xr:uid="{00000000-0004-0000-0100-000096000000}"/>
@@ -12303,10 +12303,10 @@
     <hyperlink ref="B382" r:id="rId160" xr:uid="{00000000-0004-0000-0100-0000A1000000}"/>
     <hyperlink ref="A383" r:id="rId161" xr:uid="{00000000-0004-0000-0100-0000A2000000}"/>
     <hyperlink ref="B383" r:id="rId162" xr:uid="{00000000-0004-0000-0100-0000A3000000}"/>
-    <hyperlink ref="A384" r:id="rId163" xr:uid="{00000000-0004-0000-0100-0000A4000000}"/>
-    <hyperlink ref="B384" r:id="rId164" xr:uid="{00000000-0004-0000-0100-0000A5000000}"/>
-    <hyperlink ref="A385" r:id="rId165" xr:uid="{00000000-0004-0000-0100-0000A6000000}"/>
-    <hyperlink ref="B385" r:id="rId166" xr:uid="{00000000-0004-0000-0100-0000A7000000}"/>
+    <hyperlink ref="A387" r:id="rId163" xr:uid="{00000000-0004-0000-0100-0000A4000000}"/>
+    <hyperlink ref="B387" r:id="rId164" xr:uid="{00000000-0004-0000-0100-0000A5000000}"/>
+    <hyperlink ref="A388" r:id="rId165" xr:uid="{00000000-0004-0000-0100-0000A6000000}"/>
+    <hyperlink ref="B388" r:id="rId166" xr:uid="{00000000-0004-0000-0100-0000A7000000}"/>
     <hyperlink ref="A34" r:id="rId167" xr:uid="{00000000-0004-0000-0100-0000A8000000}"/>
     <hyperlink ref="B34" r:id="rId168" xr:uid="{00000000-0004-0000-0100-0000A9000000}"/>
     <hyperlink ref="A35" r:id="rId169" xr:uid="{00000000-0004-0000-0100-0000AA000000}"/>
@@ -12417,18 +12417,18 @@
     <hyperlink ref="B297" r:id="rId274" xr:uid="{00000000-0004-0000-0100-000013010000}"/>
     <hyperlink ref="A73" r:id="rId275" xr:uid="{00000000-0004-0000-0100-000014010000}"/>
     <hyperlink ref="B73" r:id="rId276" xr:uid="{00000000-0004-0000-0100-000015010000}"/>
-    <hyperlink ref="A2" r:id="rId277" xr:uid="{00000000-0004-0000-0100-000016010000}"/>
-    <hyperlink ref="B2" r:id="rId278" xr:uid="{00000000-0004-0000-0100-000017010000}"/>
-    <hyperlink ref="A3" r:id="rId279" xr:uid="{00000000-0004-0000-0100-000018010000}"/>
-    <hyperlink ref="B3" r:id="rId280" xr:uid="{00000000-0004-0000-0100-000019010000}"/>
+    <hyperlink ref="A3" r:id="rId277" xr:uid="{00000000-0004-0000-0100-000016010000}"/>
+    <hyperlink ref="B3" r:id="rId278" xr:uid="{00000000-0004-0000-0100-000017010000}"/>
+    <hyperlink ref="A4" r:id="rId279" xr:uid="{00000000-0004-0000-0100-000018010000}"/>
+    <hyperlink ref="B4" r:id="rId280" xr:uid="{00000000-0004-0000-0100-000019010000}"/>
     <hyperlink ref="A299" r:id="rId281" xr:uid="{00000000-0004-0000-0100-00001A010000}"/>
     <hyperlink ref="B299" r:id="rId282" xr:uid="{00000000-0004-0000-0100-00001B010000}"/>
     <hyperlink ref="A300" r:id="rId283" xr:uid="{00000000-0004-0000-0100-00001C010000}"/>
     <hyperlink ref="B300" r:id="rId284" xr:uid="{00000000-0004-0000-0100-00001D010000}"/>
     <hyperlink ref="A301" r:id="rId285" xr:uid="{00000000-0004-0000-0100-00001E010000}"/>
     <hyperlink ref="B301" r:id="rId286" xr:uid="{00000000-0004-0000-0100-00001F010000}"/>
-    <hyperlink ref="A4" r:id="rId287" xr:uid="{00000000-0004-0000-0100-000020010000}"/>
-    <hyperlink ref="B4" r:id="rId288" xr:uid="{00000000-0004-0000-0100-000021010000}"/>
+    <hyperlink ref="A2" r:id="rId287" xr:uid="{00000000-0004-0000-0100-000020010000}"/>
+    <hyperlink ref="B2" r:id="rId288" xr:uid="{00000000-0004-0000-0100-000021010000}"/>
     <hyperlink ref="A380" r:id="rId289" xr:uid="{00000000-0004-0000-0100-000022010000}"/>
     <hyperlink ref="B380" r:id="rId290" xr:uid="{00000000-0004-0000-0100-000023010000}"/>
     <hyperlink ref="A45" r:id="rId291" xr:uid="{00000000-0004-0000-0100-000024010000}"/>
@@ -12453,12 +12453,12 @@
     <hyperlink ref="B28" r:id="rId310" xr:uid="{00000000-0004-0000-0100-000037010000}"/>
     <hyperlink ref="A26" r:id="rId311" xr:uid="{00000000-0004-0000-0100-000038010000}"/>
     <hyperlink ref="B26" r:id="rId312" xr:uid="{00000000-0004-0000-0100-000039010000}"/>
-    <hyperlink ref="A386" r:id="rId313" xr:uid="{00000000-0004-0000-0100-00003A010000}"/>
-    <hyperlink ref="B386" r:id="rId314" xr:uid="{00000000-0004-0000-0100-00003B010000}"/>
-    <hyperlink ref="A387" r:id="rId315" xr:uid="{00000000-0004-0000-0100-00003C010000}"/>
-    <hyperlink ref="B387" r:id="rId316" xr:uid="{00000000-0004-0000-0100-00003D010000}"/>
-    <hyperlink ref="A388" r:id="rId317" xr:uid="{00000000-0004-0000-0100-00003E010000}"/>
-    <hyperlink ref="B388" r:id="rId318" xr:uid="{00000000-0004-0000-0100-00003F010000}"/>
+    <hyperlink ref="A384" r:id="rId313" xr:uid="{00000000-0004-0000-0100-00003A010000}"/>
+    <hyperlink ref="B384" r:id="rId314" xr:uid="{00000000-0004-0000-0100-00003B010000}"/>
+    <hyperlink ref="A385" r:id="rId315" xr:uid="{00000000-0004-0000-0100-00003C010000}"/>
+    <hyperlink ref="B385" r:id="rId316" xr:uid="{00000000-0004-0000-0100-00003D010000}"/>
+    <hyperlink ref="A386" r:id="rId317" xr:uid="{00000000-0004-0000-0100-00003E010000}"/>
+    <hyperlink ref="B386" r:id="rId318" xr:uid="{00000000-0004-0000-0100-00003F010000}"/>
     <hyperlink ref="A302" r:id="rId319" xr:uid="{00000000-0004-0000-0100-000040010000}"/>
     <hyperlink ref="B302" r:id="rId320" xr:uid="{00000000-0004-0000-0100-000041010000}"/>
     <hyperlink ref="A51" r:id="rId321" xr:uid="{00000000-0004-0000-0100-000042010000}"/>
@@ -12479,16 +12479,16 @@
     <hyperlink ref="B25" r:id="rId336" xr:uid="{00000000-0004-0000-0100-000051010000}"/>
     <hyperlink ref="A391" r:id="rId337" xr:uid="{00000000-0004-0000-0100-000052010000}"/>
     <hyperlink ref="B391" r:id="rId338" xr:uid="{00000000-0004-0000-0100-000053010000}"/>
-    <hyperlink ref="A399" r:id="rId339" xr:uid="{00000000-0004-0000-0100-000054010000}"/>
-    <hyperlink ref="B399" r:id="rId340" xr:uid="{00000000-0004-0000-0100-000055010000}"/>
-    <hyperlink ref="A400" r:id="rId341" xr:uid="{00000000-0004-0000-0100-000056010000}"/>
-    <hyperlink ref="B400" r:id="rId342" xr:uid="{00000000-0004-0000-0100-000057010000}"/>
+    <hyperlink ref="A400" r:id="rId339" xr:uid="{00000000-0004-0000-0100-000054010000}"/>
+    <hyperlink ref="B400" r:id="rId340" xr:uid="{00000000-0004-0000-0100-000055010000}"/>
+    <hyperlink ref="A401" r:id="rId341" xr:uid="{00000000-0004-0000-0100-000056010000}"/>
+    <hyperlink ref="B401" r:id="rId342" xr:uid="{00000000-0004-0000-0100-000057010000}"/>
     <hyperlink ref="A295" r:id="rId343" xr:uid="{00000000-0004-0000-0100-000058010000}"/>
     <hyperlink ref="B295" r:id="rId344" xr:uid="{00000000-0004-0000-0100-000059010000}"/>
     <hyperlink ref="A284" r:id="rId345" xr:uid="{00000000-0004-0000-0100-00005A010000}"/>
     <hyperlink ref="B284" r:id="rId346" xr:uid="{00000000-0004-0000-0100-00005B010000}"/>
-    <hyperlink ref="A68" r:id="rId347" xr:uid="{00000000-0004-0000-0100-00005C010000}"/>
-    <hyperlink ref="B68" r:id="rId348" xr:uid="{00000000-0004-0000-0100-00005D010000}"/>
+    <hyperlink ref="A69" r:id="rId347" xr:uid="{00000000-0004-0000-0100-00005C010000}"/>
+    <hyperlink ref="B69" r:id="rId348" xr:uid="{00000000-0004-0000-0100-00005D010000}"/>
     <hyperlink ref="A55" r:id="rId349" xr:uid="{00000000-0004-0000-0100-00005E010000}"/>
     <hyperlink ref="B55" r:id="rId350" xr:uid="{00000000-0004-0000-0100-00005F010000}"/>
     <hyperlink ref="A56" r:id="rId351" xr:uid="{00000000-0004-0000-0100-000060010000}"/>
@@ -12617,8 +12617,8 @@
     <hyperlink ref="B66" r:id="rId474" xr:uid="{00000000-0004-0000-0100-0000DB010000}"/>
     <hyperlink ref="A67" r:id="rId475" xr:uid="{00000000-0004-0000-0100-0000DC010000}"/>
     <hyperlink ref="B67" r:id="rId476" xr:uid="{00000000-0004-0000-0100-0000DD010000}"/>
-    <hyperlink ref="A69" r:id="rId477" xr:uid="{00000000-0004-0000-0100-0000DE010000}"/>
-    <hyperlink ref="B69" r:id="rId478" xr:uid="{00000000-0004-0000-0100-0000DF010000}"/>
+    <hyperlink ref="A68" r:id="rId477" xr:uid="{00000000-0004-0000-0100-0000DE010000}"/>
+    <hyperlink ref="B68" r:id="rId478" xr:uid="{00000000-0004-0000-0100-0000DF010000}"/>
     <hyperlink ref="A358" r:id="rId479" xr:uid="{00000000-0004-0000-0100-0000E0010000}"/>
     <hyperlink ref="B358" r:id="rId480" xr:uid="{00000000-0004-0000-0100-0000E1010000}"/>
     <hyperlink ref="A352" r:id="rId481" xr:uid="{00000000-0004-0000-0100-0000E2010000}"/>
@@ -12631,8 +12631,8 @@
     <hyperlink ref="B53" r:id="rId488" xr:uid="{00000000-0004-0000-0100-0000E9010000}"/>
     <hyperlink ref="A54" r:id="rId489" xr:uid="{00000000-0004-0000-0100-0000EA010000}"/>
     <hyperlink ref="B54" r:id="rId490" xr:uid="{00000000-0004-0000-0100-0000EB010000}"/>
-    <hyperlink ref="A401" r:id="rId491" xr:uid="{00000000-0004-0000-0100-0000EC010000}"/>
-    <hyperlink ref="B401" r:id="rId492" xr:uid="{00000000-0004-0000-0100-0000ED010000}"/>
+    <hyperlink ref="A399" r:id="rId491" xr:uid="{00000000-0004-0000-0100-0000EC010000}"/>
+    <hyperlink ref="B399" r:id="rId492" xr:uid="{00000000-0004-0000-0100-0000ED010000}"/>
     <hyperlink ref="A31" r:id="rId493" xr:uid="{00000000-0004-0000-0100-0000EE010000}"/>
     <hyperlink ref="B31" r:id="rId494" xr:uid="{00000000-0004-0000-0100-0000EF010000}"/>
     <hyperlink ref="A32" r:id="rId495" xr:uid="{00000000-0004-0000-0100-0000F0010000}"/>
@@ -12807,7 +12807,7 @@
   <dimension ref="A1:F1016"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A193" sqref="A193"/>
     </sheetView>
   </sheetViews>

--- a/question-4/P4-medicaltourism.xlsx
+++ b/question-4/P4-medicaltourism.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/federicopozzi/Documents/GitHub/A/dd16-phase2-template-master/question-4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BCF8416-4739-2349-A1CD-A7273740CA85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD4F08E-4654-E54E-80D9-55EA9DC065B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#medicaltourism" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'#medicaltourism'!$A$1:$E$401</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Location of profiles'!$A$1:$F$188</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <customWorkbookViews>
@@ -338,7 +339,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3129" uniqueCount="1049">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3129" uniqueCount="1048">
   <si>
     <t>Instagram URLs</t>
   </si>
@@ -1925,9 +1926,6 @@
   </si>
   <si>
     <t>https://www.instagram.com/p/CHf7OZlpzmD/?igshid=87l2gsg4h31d</t>
-  </si>
-  <si>
-    <t>São Paolo</t>
   </si>
   <si>
     <t>https://www.instagram.com/p/CHf7NxOFesF/?igshid=1hgrhgokddxyx</t>
@@ -4001,7 +3999,7 @@
   </sheetPr>
   <dimension ref="A1:E842"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="173" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="173" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F53" sqref="F53"/>
     </sheetView>
@@ -4021,10 +4019,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>1043</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>1044</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>1</v>
@@ -4120,36 +4118,36 @@
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>538</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>539</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>135</v>
       </c>
       <c r="D7" s="19" t="s">
+        <v>539</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>540</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="14" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>135</v>
       </c>
       <c r="D8" s="19" t="s">
+        <v>539</v>
+      </c>
+      <c r="E8" s="19" t="s">
         <v>540</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4528,36 +4526,36 @@
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="14" t="s">
+        <v>532</v>
+      </c>
+      <c r="B31" s="14" t="s">
         <v>533</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>534</v>
       </c>
       <c r="C31" s="19" t="s">
         <v>88</v>
       </c>
       <c r="D31" s="24" t="s">
+        <v>534</v>
+      </c>
+      <c r="E31" s="19" t="s">
         <v>535</v>
-      </c>
-      <c r="E31" s="19" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="14" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C32" s="19" t="s">
         <v>88</v>
       </c>
       <c r="D32" s="24" t="s">
+        <v>534</v>
+      </c>
+      <c r="E32" s="19" t="s">
         <v>535</v>
-      </c>
-      <c r="E32" s="19" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4894,7 +4892,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="E52" s="19" t="s">
         <v>15</v>
@@ -4902,7 +4900,7 @@
     </row>
     <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="14" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B53" s="14" t="s">
         <v>14</v>
@@ -4911,7 +4909,7 @@
         <v>3</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="E53" s="19" t="s">
         <v>15</v>
@@ -4919,7 +4917,7 @@
     </row>
     <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="14" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B54" s="14" t="s">
         <v>14</v>
@@ -4928,7 +4926,7 @@
         <v>3</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="E54" s="19" t="s">
         <v>15</v>
@@ -4936,7 +4934,7 @@
     </row>
     <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="14" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B55" s="14" t="s">
         <v>14</v>
@@ -4945,7 +4943,7 @@
         <v>3</v>
       </c>
       <c r="D55" s="19" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="E55" s="19" t="s">
         <v>15</v>
@@ -5149,10 +5147,10 @@
         <v>38</v>
       </c>
       <c r="D67" s="24" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="E67" s="19" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -5392,2552 +5390,2552 @@
     </row>
     <row r="82" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A82" s="14" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D82" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E82" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A83" s="14" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D83" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E83" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A84" s="14" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C84" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D84" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E84" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A85" s="14" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C85" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D85" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E85" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A86" s="14" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C86" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D86" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E86" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A87" s="14" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D87" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E87" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A88" s="14" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C88" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D88" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E88" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A89" s="14" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D89" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E89" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A90" s="14" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D90" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E90" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A91" s="14" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D91" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E91" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A92" s="14" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C92" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D92" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E92" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A93" s="14" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C93" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D93" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E93" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A94" s="14" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C94" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D94" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E94" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A95" s="14" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C95" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D95" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E95" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A96" s="14" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C96" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D96" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E96" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A97" s="14" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C97" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D97" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E97" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A98" s="14" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C98" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D98" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E98" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A99" s="14" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D99" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E99" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A100" s="14" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C100" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D100" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E100" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A101" s="14" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C101" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D101" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E101" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A102" s="14" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C102" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D102" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E102" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A103" s="14" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C103" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D103" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E103" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A104" s="14" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B104" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C104" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D104" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E104" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A105" s="14" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B105" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C105" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D105" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E105" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A106" s="14" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B106" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C106" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D106" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E106" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A107" s="14" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B107" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C107" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D107" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E107" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A108" s="14" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B108" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C108" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D108" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E108" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A109" s="14" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C109" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D109" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E109" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A110" s="14" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C110" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D110" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E110" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A111" s="14" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D111" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E111" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A112" s="14" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C112" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D112" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E112" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A113" s="14" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C113" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D113" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E113" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A114" s="14" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C114" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D114" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E114" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A115" s="14" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C115" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D115" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E115" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A116" s="14" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B116" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C116" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D116" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E116" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A117" s="14" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C117" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D117" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E117" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A118" s="14" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D118" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E118" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A119" s="14" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C119" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D119" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E119" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A120" s="14" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C120" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D120" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E120" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A121" s="14" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B121" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C121" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D121" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E121" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A122" s="14" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B122" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C122" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D122" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E122" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A123" s="14" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B123" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C123" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D123" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E123" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A124" s="14" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B124" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C124" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D124" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E124" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A125" s="14" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B125" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C125" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D125" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E125" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A126" s="14" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B126" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C126" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D126" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E126" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A127" s="14" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B127" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C127" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D127" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E127" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A128" s="14" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B128" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C128" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D128" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E128" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A129" s="14" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B129" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C129" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D129" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E129" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A130" s="14" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B130" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C130" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D130" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E130" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A131" s="14" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B131" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C131" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D131" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E131" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A132" s="14" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B132" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C132" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D132" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E132" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A133" s="14" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B133" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C133" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D133" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E133" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A134" s="14" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B134" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C134" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D134" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E134" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A135" s="14" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B135" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C135" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D135" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E135" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A136" s="14" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B136" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C136" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D136" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E136" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A137" s="14" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B137" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C137" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D137" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E137" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A138" s="14" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B138" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C138" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D138" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E138" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A139" s="14" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B139" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C139" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D139" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E139" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A140" s="14" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B140" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C140" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D140" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E140" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A141" s="14" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B141" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C141" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D141" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E141" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A142" s="14" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B142" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C142" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D142" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E142" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A143" s="14" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B143" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C143" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D143" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E143" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A144" s="14" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B144" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C144" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D144" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E144" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A145" s="14" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B145" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C145" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D145" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E145" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A146" s="14" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B146" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C146" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D146" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E146" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A147" s="14" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B147" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C147" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D147" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E147" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A148" s="14" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B148" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C148" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D148" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E148" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A149" s="14" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B149" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C149" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D149" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E149" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A150" s="14" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B150" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C150" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D150" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E150" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A151" s="14" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B151" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C151" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D151" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E151" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A152" s="14" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B152" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C152" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D152" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E152" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="153" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A153" s="14" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B153" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C153" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D153" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E153" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A154" s="14" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B154" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C154" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D154" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E154" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="155" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A155" s="14" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B155" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C155" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D155" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E155" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A156" s="14" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B156" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C156" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D156" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E156" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A157" s="14" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B157" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C157" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D157" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E157" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="158" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A158" s="14" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B158" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C158" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D158" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E158" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A159" s="14" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B159" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C159" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D159" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E159" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A160" s="14" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B160" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C160" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D160" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E160" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A161" s="14" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B161" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C161" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D161" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E161" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A162" s="14" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B162" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C162" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D162" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E162" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A163" s="14" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B163" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C163" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D163" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E163" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A164" s="14" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B164" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C164" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D164" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E164" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A165" s="14" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B165" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C165" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D165" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E165" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A166" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B166" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C166" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D166" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E166" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A167" s="14" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B167" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C167" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D167" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E167" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A168" s="14" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B168" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C168" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D168" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E168" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A169" s="14" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B169" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C169" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D169" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E169" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A170" s="14" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B170" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C170" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D170" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E170" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A171" s="14" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B171" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C171" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D171" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E171" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A172" s="14" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B172" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C172" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D172" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E172" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A173" s="14" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B173" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C173" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D173" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E173" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A174" s="14" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B174" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C174" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D174" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E174" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A175" s="14" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B175" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C175" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D175" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E175" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A176" s="14" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B176" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C176" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D176" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E176" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A177" s="14" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B177" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C177" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D177" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E177" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A178" s="14" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B178" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C178" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D178" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E178" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A179" s="14" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B179" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C179" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D179" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E179" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A180" s="14" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B180" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C180" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D180" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E180" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A181" s="14" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B181" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C181" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D181" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E181" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A182" s="14" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B182" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C182" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D182" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E182" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="183" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A183" s="14" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B183" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C183" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D183" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E183" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A184" s="14" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B184" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C184" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D184" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E184" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A185" s="14" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B185" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C185" s="23" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D185" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E185" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="186" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A186" s="16" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B186" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C186" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D186" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E186" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A187" s="14" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B187" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C187" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D187" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E187" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A188" s="14" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B188" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C188" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D188" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E188" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A189" s="14" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B189" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C189" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D189" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E189" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A190" s="14" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B190" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C190" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D190" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E190" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A191" s="14" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B191" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C191" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D191" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E191" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="192" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A192" s="14" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B192" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C192" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D192" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E192" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="193" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A193" s="14" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B193" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C193" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D193" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E193" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="194" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A194" s="14" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B194" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C194" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D194" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E194" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A195" s="14" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B195" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C195" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D195" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E195" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="196" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A196" s="14" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B196" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C196" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D196" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E196" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="197" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A197" s="14" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B197" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C197" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D197" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E197" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="198" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A198" s="14" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B198" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C198" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D198" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E198" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="199" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A199" s="14" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B199" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C199" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D199" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E199" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="200" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A200" s="16" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B200" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C200" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D200" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E200" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="201" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A201" s="14" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B201" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C201" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D201" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E201" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="202" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A202" s="14" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B202" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C202" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D202" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E202" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="203" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A203" s="14" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B203" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C203" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D203" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E203" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="204" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A204" s="14" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B204" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C204" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D204" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E204" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="205" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A205" s="14" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B205" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C205" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D205" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E205" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="206" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A206" s="14" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B206" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C206" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D206" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E206" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="207" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A207" s="14" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B207" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C207" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D207" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E207" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="208" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A208" s="14" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B208" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C208" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D208" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E208" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="209" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A209" s="14" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B209" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C209" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D209" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E209" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="210" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A210" s="14" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B210" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C210" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D210" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E210" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="211" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A211" s="14" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B211" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C211" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D211" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E211" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="212" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A212" s="14" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B212" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C212" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D212" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E212" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="213" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A213" s="14" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B213" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C213" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D213" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E213" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="214" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A214" s="14" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B214" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C214" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D214" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E214" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="215" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A215" s="14" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B215" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C215" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D215" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E215" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="216" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A216" s="14" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B216" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C216" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D216" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E216" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="217" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A217" s="14" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B217" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C217" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D217" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E217" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="218" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A218" s="14" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B218" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C218" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D218" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E218" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="219" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A219" s="14" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B219" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C219" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D219" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E219" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="220" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A220" s="14" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B220" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C220" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D220" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E220" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="221" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A221" s="14" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B221" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C221" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D221" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E221" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="222" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A222" s="14" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B222" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C222" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D222" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E222" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="223" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A223" s="14" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B223" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C223" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D223" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E223" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="224" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A224" s="14" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B224" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C224" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D224" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E224" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="225" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A225" s="14" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B225" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C225" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D225" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E225" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="226" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A226" s="14" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B226" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C226" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D226" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E226" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="227" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A227" s="14" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B227" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C227" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D227" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E227" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="228" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A228" s="14" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B228" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C228" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D228" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E228" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="229" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A229" s="14" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B229" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C229" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D229" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E229" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="230" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A230" s="14" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B230" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C230" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D230" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E230" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="231" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A231" s="14" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B231" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C231" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D231" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E231" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="232" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -9138,7 +9136,7 @@
         <v>61</v>
       </c>
       <c r="D302" s="21" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="E302" s="19" t="s">
         <v>35</v>
@@ -10464,7 +10462,7 @@
         <v>88</v>
       </c>
       <c r="D380" s="19" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="E380" s="19" t="s">
         <v>403</v>
@@ -10481,7 +10479,7 @@
         <v>88</v>
       </c>
       <c r="D381" s="19" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="E381" s="19" t="s">
         <v>403</v>
@@ -10679,7 +10677,7 @@
         <v>249</v>
       </c>
       <c r="B393" s="14" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C393" s="19" t="s">
         <v>75</v>
@@ -12821,9 +12819,9 @@
   </sheetPr>
   <dimension ref="A1:F1016"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A193" sqref="A193"/>
+    <sheetView tabSelected="1" zoomScale="158" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C154" sqref="C154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12838,7 +12836,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>30</v>
@@ -12850,3744 +12848,3744 @@
         <v>2</v>
       </c>
       <c r="E1" s="9" t="s">
+        <v>694</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>695</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
-        <v>539</v>
+        <v>359</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>540</v>
+        <v>361</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>541</v>
+        <v>362</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>697</v>
+        <v>803</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>698</v>
+        <v>804</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
-        <v>534</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>535</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>536</v>
+        <v>64</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>699</v>
+        <v>785</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>700</v>
+        <v>786</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
-        <v>524</v>
+        <v>247</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>525</v>
+        <v>248</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>701</v>
+        <v>823</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>702</v>
+        <v>824</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
-        <v>12</v>
+        <v>1041</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>248</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>703</v>
+        <v>823</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>704</v>
+        <v>824</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="14" t="s">
-        <v>22</v>
+        <v>204</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>206</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>372</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>705</v>
+        <v>797</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>706</v>
+        <v>798</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="14" t="s">
-        <v>14</v>
+        <v>371</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>529</v>
+        <v>206</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>15</v>
+        <v>372</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>707</v>
+        <v>797</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>708</v>
+        <v>798</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="14" t="s">
-        <v>522</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>415</v>
+        <v>198</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>709</v>
+        <v>207</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>710</v>
+        <v>920</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>711</v>
+        <v>921</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="14" t="s">
-        <v>454</v>
+        <v>341</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>451</v>
+        <v>342</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>29</v>
+        <v>343</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>712</v>
+        <v>811</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>713</v>
+        <v>812</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="14" t="s">
-        <v>450</v>
+        <v>63</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>451</v>
+        <v>65</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>712</v>
+        <v>1012</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>713</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="14" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="14" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="14" t="s">
-        <v>464</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>29</v>
+        <v>67</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>714</v>
+        <v>1014</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>715</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="14" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="14" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>505</v>
+        <v>460</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="14" t="s">
-        <v>497</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="D16" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="14" t="s">
-        <v>504</v>
+        <v>254</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>505</v>
+        <v>252</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>722</v>
+        <v>825</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>723</v>
+        <v>826</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="14" t="s">
-        <v>507</v>
+        <v>251</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>505</v>
+        <v>78</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>252</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>724</v>
+        <v>825</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>725</v>
+        <v>826</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="14" t="s">
-        <v>501</v>
+        <v>256</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>505</v>
+        <v>252</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>726</v>
+        <v>825</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>727</v>
+        <v>826</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="14" t="s">
-        <v>515</v>
+        <v>254</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>505</v>
+        <v>75</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>252</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>728</v>
+        <v>825</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>729</v>
+        <v>826</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="14" t="s">
-        <v>471</v>
+        <v>60</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>505</v>
+        <v>1026</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>730</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>731</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="14" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>505</v>
+        <v>469</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>732</v>
+        <v>715</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>733</v>
+        <v>716</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="14" t="s">
-        <v>471</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>75</v>
+        <v>37</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>505</v>
+        <v>39</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>734</v>
+        <v>1027</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>735</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="14" t="s">
-        <v>497</v>
+        <v>382</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>505</v>
+        <v>383</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>29</v>
+        <v>384</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>736</v>
+        <v>787</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>737</v>
+        <v>788</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="14" t="s">
-        <v>471</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>505</v>
+        <v>259</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>260</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>738</v>
+        <v>827</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>739</v>
+        <v>828</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>505</v>
+        <v>524</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>525</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>740</v>
+        <v>700</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>741</v>
+        <v>701</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="14" t="s">
-        <v>517</v>
+        <v>41</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>519</v>
+        <v>42</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>742</v>
+        <v>1029</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>743</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="14" t="s">
-        <v>517</v>
+        <v>87</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>519</v>
+        <v>89</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>744</v>
+        <v>1010</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>745</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="14" t="s">
-        <v>517</v>
+        <v>354</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>519</v>
+        <v>355</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>29</v>
+        <v>356</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>746</v>
+        <v>809</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>747</v>
+        <v>810</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="14" t="s">
-        <v>445</v>
+        <v>12</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>442</v>
+        <v>13</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>443</v>
+        <v>15</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>748</v>
+        <v>702</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>749</v>
+        <v>703</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="14" t="s">
-        <v>441</v>
+        <v>22</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>442</v>
+        <v>16</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>443</v>
+        <v>15</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>750</v>
+        <v>704</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>751</v>
+        <v>705</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="14" t="s">
-        <v>445</v>
+        <v>264</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>442</v>
+        <v>265</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>443</v>
+        <v>8</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>752</v>
+        <v>829</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>753</v>
+        <v>830</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="14" t="s">
-        <v>445</v>
+        <v>386</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>442</v>
+        <v>387</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>443</v>
+        <v>384</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>754</v>
+        <v>789</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>755</v>
+        <v>790</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="14" t="s">
-        <v>445</v>
+        <v>77</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>442</v>
+        <v>4</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>443</v>
+        <v>5</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>756</v>
+        <v>922</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>757</v>
+        <v>923</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="14" t="s">
-        <v>437</v>
+        <v>117</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>438</v>
+        <v>3</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>439</v>
+        <v>5</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>758</v>
+        <v>924</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>759</v>
+        <v>925</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="14" t="s">
-        <v>414</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>6</v>
+        <v>119</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>415</v>
+        <v>4</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>416</v>
+        <v>5</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>760</v>
+        <v>926</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>761</v>
+        <v>927</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="14" t="s">
-        <v>420</v>
+        <v>19</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>418</v>
+        <v>4</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>416</v>
+        <v>5</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>762</v>
+        <v>928</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>763</v>
+        <v>929</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="14" t="s">
-        <v>425</v>
+        <v>122</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>418</v>
+        <v>4</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>416</v>
+        <v>5</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>764</v>
+        <v>930</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>765</v>
+        <v>931</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="14" t="s">
-        <v>420</v>
+        <v>124</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>416</v>
+        <v>4</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>766</v>
+        <v>932</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>767</v>
+        <v>933</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="14" t="s">
-        <v>425</v>
+        <v>77</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>418</v>
+        <v>4</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>416</v>
+        <v>5</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>768</v>
+        <v>934</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>769</v>
+        <v>935</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="14" t="s">
-        <v>420</v>
+        <v>127</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>418</v>
+        <v>4</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>416</v>
+        <v>5</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>770</v>
+        <v>936</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>771</v>
+        <v>937</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="14" t="s">
-        <v>420</v>
+        <v>130</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>418</v>
+        <v>4</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>416</v>
+        <v>5</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>772</v>
+        <v>938</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>773</v>
+        <v>939</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="14" t="s">
-        <v>425</v>
+        <v>134</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>418</v>
+        <v>4</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>416</v>
+        <v>5</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>774</v>
+        <v>940</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>775</v>
+        <v>941</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="14" t="s">
-        <v>429</v>
+        <v>19</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>418</v>
+        <v>4</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>416</v>
+        <v>5</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>776</v>
+        <v>942</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>777</v>
+        <v>943</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="14" t="s">
-        <v>432</v>
+        <v>77</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>418</v>
+        <v>4</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>416</v>
+        <v>5</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>778</v>
+        <v>944</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>779</v>
+        <v>945</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="14" t="s">
-        <v>420</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>6</v>
+        <v>137</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>418</v>
+        <v>4</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>416</v>
+        <v>5</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>780</v>
+        <v>946</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>781</v>
+        <v>947</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="14" t="s">
-        <v>425</v>
+        <v>139</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>418</v>
+        <v>4</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>416</v>
+        <v>5</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>782</v>
+        <v>948</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>783</v>
+        <v>949</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="14" t="s">
-        <v>406</v>
+        <v>147</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>407</v>
+        <v>4</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>408</v>
+        <v>5</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>784</v>
+        <v>950</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>785</v>
+        <v>951</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="14" t="s">
-        <v>9</v>
+        <v>151</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>11</v>
+        <v>4</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>786</v>
+        <v>952</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>787</v>
+        <v>953</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="14" t="s">
-        <v>382</v>
+        <v>155</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>383</v>
+        <v>4</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>384</v>
+        <v>5</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>788</v>
+        <v>954</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>789</v>
+        <v>955</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="14" t="s">
-        <v>386</v>
+        <v>141</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>387</v>
+        <v>4</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>384</v>
+        <v>5</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>790</v>
+        <v>956</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>791</v>
+        <v>957</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="14" t="s">
-        <v>389</v>
+        <v>159</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>390</v>
+        <v>4</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>384</v>
+        <v>5</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>792</v>
+        <v>958</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>793</v>
+        <v>959</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="14" t="s">
-        <v>392</v>
+        <v>161</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>3</v>
+        <v>112</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>393</v>
+        <v>4</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>384</v>
+        <v>5</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>794</v>
+        <v>960</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>795</v>
+        <v>961</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="14" t="s">
-        <v>395</v>
+        <v>19</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>3</v>
+        <v>112</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>396</v>
+        <v>4</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>384</v>
+        <v>5</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>796</v>
+        <v>962</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>797</v>
+        <v>963</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="14" t="s">
-        <v>204</v>
+        <v>143</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>206</v>
+        <v>4</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>372</v>
+        <v>5</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>798</v>
+        <v>964</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>799</v>
+        <v>965</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="14" t="s">
-        <v>371</v>
+        <v>145</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>206</v>
+        <v>4</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>372</v>
+        <v>5</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>798</v>
+        <v>966</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>799</v>
+        <v>967</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="14" t="s">
-        <v>376</v>
+        <v>165</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>378</v>
+        <v>4</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>372</v>
+        <v>5</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>800</v>
+        <v>968</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>801</v>
+        <v>969</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="14" t="s">
-        <v>379</v>
+        <v>167</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>380</v>
+        <v>4</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>372</v>
+        <v>5</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>802</v>
+        <v>970</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>803</v>
+        <v>971</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="14" t="s">
-        <v>359</v>
+        <v>171</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>361</v>
+        <v>4</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>362</v>
+        <v>5</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>804</v>
+        <v>972</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>805</v>
+        <v>973</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="14" t="s">
-        <v>367</v>
+        <v>173</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>365</v>
+        <v>4</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="E60" s="11" t="s">
-        <v>806</v>
-      </c>
-      <c r="F60" s="11" t="s">
-        <v>807</v>
+        <v>5</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>974</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>975</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="14" t="s">
-        <v>369</v>
+        <v>175</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>365</v>
+        <v>4</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="E61" s="11" t="s">
-        <v>806</v>
-      </c>
-      <c r="F61" s="11" t="s">
-        <v>807</v>
+        <v>5</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>976</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>977</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="14" t="s">
-        <v>364</v>
+        <v>169</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>365</v>
+        <v>4</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="E62" s="11" t="s">
-        <v>808</v>
-      </c>
-      <c r="F62" s="11" t="s">
-        <v>809</v>
+        <v>5</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>978</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>979</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="14" t="s">
-        <v>354</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>6</v>
+        <v>141</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>355</v>
+        <v>4</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>356</v>
+        <v>5</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>810</v>
+        <v>980</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>811</v>
+        <v>981</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A64" s="14" t="s">
-        <v>341</v>
+        <v>77</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>342</v>
+        <v>4</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>343</v>
+        <v>5</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>812</v>
+        <v>982</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>813</v>
+        <v>983</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A65" s="14" t="s">
-        <v>334</v>
+        <v>180</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>335</v>
+        <v>4</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>814</v>
+        <v>984</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>815</v>
+        <v>985</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A66" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>75</v>
+        <v>183</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>336</v>
+        <v>4</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>814</v>
+        <v>986</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>815</v>
+        <v>987</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" s="14" t="s">
-        <v>334</v>
+        <v>185</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>335</v>
+        <v>4</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>814</v>
+        <v>988</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>815</v>
+        <v>989</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A68" s="14" t="s">
-        <v>329</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>75</v>
+        <v>187</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>330</v>
+        <v>189</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>816</v>
+        <v>990</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>817</v>
+        <v>991</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A69" s="14" t="s">
-        <v>321</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>112</v>
+        <v>187</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>322</v>
+        <v>189</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>323</v>
+        <v>5</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>818</v>
+        <v>990</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>819</v>
+        <v>991</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A70" s="14" t="s">
-        <v>321</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>228</v>
+        <v>187</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>322</v>
+        <v>189</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>323</v>
+        <v>5</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>820</v>
+        <v>990</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>821</v>
+        <v>991</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>228</v>
+        <v>187</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>327</v>
+        <v>189</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>323</v>
+        <v>5</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>822</v>
+        <v>990</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>823</v>
+        <v>991</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A72" s="14" t="s">
-        <v>247</v>
+        <v>376</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>248</v>
+        <v>378</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>8</v>
+        <v>372</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>824</v>
+        <v>799</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>825</v>
+        <v>800</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" s="14" t="s">
-        <v>1042</v>
+        <v>334</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>248</v>
+        <v>335</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>824</v>
+        <v>813</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>825</v>
+        <v>814</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A74" s="14" t="s">
-        <v>254</v>
+        <v>334</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>252</v>
+        <v>335</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>826</v>
+        <v>813</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>827</v>
+        <v>814</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A75" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>78</v>
+        <v>334</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>252</v>
+        <v>335</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>826</v>
+        <v>813</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>827</v>
+        <v>814</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A76" s="14" t="s">
-        <v>256</v>
+        <v>93</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>252</v>
+        <v>94</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>826</v>
+        <v>998</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>827</v>
+        <v>999</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A77" s="14" t="s">
-        <v>254</v>
+        <v>321</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>252</v>
+        <v>322</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>8</v>
+        <v>323</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>826</v>
+        <v>817</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>827</v>
+        <v>818</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A78" s="14" t="s">
-        <v>259</v>
+        <v>321</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>260</v>
+        <v>228</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>8</v>
+        <v>323</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>829</v>
+        <v>820</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A79" s="14" t="s">
-        <v>264</v>
+        <v>406</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>265</v>
+        <v>407</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>8</v>
+        <v>408</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>830</v>
+        <v>783</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>831</v>
+        <v>784</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A80" s="14" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>8</v>
+        <v>245</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>832</v>
+        <v>883</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>833</v>
+        <v>884</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A81" s="14" t="s">
-        <v>274</v>
+        <v>77</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>271</v>
+        <v>20</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>834</v>
+        <v>1016</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>835</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A82" s="14" t="s">
-        <v>278</v>
+        <v>70</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>271</v>
+        <v>64</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>836</v>
+        <v>1018</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>837</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A83" s="14" t="s">
-        <v>280</v>
+        <v>74</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>271</v>
+        <v>20</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>838</v>
+        <v>1020</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>839</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A84" s="14" t="s">
-        <v>276</v>
+        <v>56</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>271</v>
+        <v>58</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>840</v>
+        <v>1031</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>841</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A85" s="14" t="s">
-        <v>270</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>6</v>
+        <v>56</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>228</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>271</v>
+        <v>58</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>842</v>
+        <v>1033</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>843</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A86" s="14" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>844</v>
+        <v>831</v>
       </c>
       <c r="F86" s="10" t="s">
-        <v>845</v>
+        <v>832</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A87" s="14" t="s">
-        <v>282</v>
+        <v>97</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>284</v>
+        <v>98</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>846</v>
+        <v>1000</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>847</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A88" s="14" t="s">
-        <v>282</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>6</v>
+        <v>237</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>284</v>
+        <v>17</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>848</v>
+        <v>885</v>
       </c>
       <c r="F88" s="10" t="s">
-        <v>849</v>
+        <v>886</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A89" s="14" t="s">
-        <v>288</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>78</v>
+        <v>410</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>289</v>
+        <v>411</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>8</v>
+        <v>917</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>850</v>
+        <v>918</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>851</v>
+        <v>919</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A90" s="14" t="s">
-        <v>288</v>
+        <v>241</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>228</v>
+        <v>3</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>289</v>
+        <v>242</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>850</v>
+        <v>887</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>851</v>
+        <v>888</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A91" s="14" t="s">
-        <v>295</v>
+        <v>23</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>852</v>
+        <v>992</v>
       </c>
       <c r="F91" s="10" t="s">
-        <v>853</v>
+        <v>993</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A92" s="14" t="s">
-        <v>301</v>
+        <v>167</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>3</v>
+        <v>112</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>7</v>
+        <v>192</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>854</v>
+        <v>994</v>
       </c>
       <c r="F92" s="10" t="s">
-        <v>855</v>
+        <v>995</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A93" s="14" t="s">
-        <v>305</v>
+        <v>471</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>7</v>
+        <v>505</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>856</v>
+        <v>717</v>
       </c>
       <c r="F93" s="10" t="s">
-        <v>857</v>
+        <v>718</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A94" s="14" t="s">
-        <v>310</v>
+        <v>497</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>7</v>
+        <v>505</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>858</v>
+        <v>719</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>859</v>
+        <v>720</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A95" s="14" t="s">
-        <v>319</v>
+        <v>504</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>7</v>
+        <v>505</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>860</v>
+        <v>721</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>861</v>
+        <v>722</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A96" s="14" t="s">
-        <v>307</v>
+        <v>507</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>505</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>862</v>
+        <v>723</v>
       </c>
       <c r="F96" s="10" t="s">
-        <v>863</v>
+        <v>724</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A97" s="14" t="s">
-        <v>314</v>
+        <v>501</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>7</v>
+        <v>505</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>864</v>
+        <v>725</v>
       </c>
       <c r="F97" s="10" t="s">
-        <v>865</v>
+        <v>726</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A98" s="14" t="s">
-        <v>292</v>
+        <v>515</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>505</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>866</v>
+        <v>727</v>
       </c>
       <c r="F98" s="10" t="s">
-        <v>867</v>
+        <v>728</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A99" s="14" t="s">
-        <v>299</v>
+        <v>471</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>7</v>
+        <v>505</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="E99" s="10" t="s">
-        <v>868</v>
+        <v>729</v>
       </c>
       <c r="F99" s="10" t="s">
-        <v>869</v>
+        <v>730</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A100" s="14" t="s">
-        <v>295</v>
+        <v>471</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>7</v>
+        <v>505</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="E100" s="10" t="s">
-        <v>870</v>
+        <v>731</v>
       </c>
       <c r="F100" s="10" t="s">
-        <v>871</v>
+        <v>732</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A101" s="14" t="s">
-        <v>312</v>
+        <v>471</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>7</v>
+        <v>505</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="E101" s="10" t="s">
-        <v>872</v>
+        <v>733</v>
       </c>
       <c r="F101" s="10" t="s">
-        <v>873</v>
+        <v>734</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A102" s="14" t="s">
-        <v>307</v>
+        <v>497</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>228</v>
+        <v>75</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>7</v>
+        <v>505</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>874</v>
+        <v>735</v>
       </c>
       <c r="F102" s="10" t="s">
-        <v>875</v>
+        <v>736</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A103" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>75</v>
+        <v>471</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>7</v>
+        <v>505</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="E103" s="10" t="s">
-        <v>876</v>
+        <v>737</v>
       </c>
       <c r="F103" s="10" t="s">
-        <v>877</v>
+        <v>738</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A104" s="14" t="s">
-        <v>295</v>
+        <v>513</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C104" s="1" t="s">
-        <v>7</v>
+      <c r="C104" s="6" t="s">
+        <v>505</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="E104" s="10" t="s">
-        <v>878</v>
+        <v>739</v>
       </c>
       <c r="F104" s="10" t="s">
-        <v>879</v>
+        <v>740</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A105" s="14" t="s">
-        <v>303</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>6</v>
+        <v>274</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>7</v>
+        <v>271</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E105" s="10" t="s">
-        <v>880</v>
+        <v>833</v>
       </c>
       <c r="F105" s="10" t="s">
-        <v>881</v>
+        <v>834</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A106" s="14" t="s">
-        <v>316</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>6</v>
+        <v>278</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>7</v>
+        <v>271</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>882</v>
+        <v>835</v>
       </c>
       <c r="F106" s="10" t="s">
-        <v>883</v>
+        <v>836</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A107" s="14" t="s">
-        <v>244</v>
+        <v>280</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>26</v>
+        <v>271</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="E107" s="10" t="s">
-        <v>884</v>
+        <v>837</v>
       </c>
       <c r="F107" s="10" t="s">
-        <v>885</v>
+        <v>838</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A108" s="14" t="s">
-        <v>237</v>
+        <v>276</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>17</v>
+        <v>271</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>886</v>
+        <v>839</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>887</v>
+        <v>840</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A109" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>3</v>
+        <v>270</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>242</v>
+        <v>271</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>888</v>
+        <v>841</v>
       </c>
       <c r="F109" s="10" t="s">
-        <v>889</v>
+        <v>842</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A110" s="14" t="s">
-        <v>231</v>
+        <v>44</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>232</v>
+        <v>45</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>233</v>
+        <v>28</v>
       </c>
       <c r="E110" s="10" t="s">
-        <v>890</v>
+        <v>1035</v>
       </c>
       <c r="F110" s="10" t="s">
-        <v>891</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A111" s="14" t="s">
-        <v>235</v>
+        <v>282</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>232</v>
+        <v>284</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>233</v>
+        <v>8</v>
       </c>
       <c r="E111" s="10" t="s">
-        <v>892</v>
+        <v>843</v>
       </c>
       <c r="F111" s="10" t="s">
-        <v>893</v>
+        <v>844</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A112" s="14" t="s">
-        <v>227</v>
+        <v>282</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>228</v>
+        <v>75</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>229</v>
+        <v>284</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>894</v>
+        <v>845</v>
       </c>
       <c r="F112" s="10" t="s">
-        <v>895</v>
+        <v>846</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A113" s="14" t="s">
-        <v>349</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>212</v>
+        <v>282</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="E113" s="10" t="s">
-        <v>896</v>
+        <v>847</v>
       </c>
       <c r="F113" s="10" t="s">
-        <v>897</v>
+        <v>848</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A114" s="14" t="s">
-        <v>210</v>
+        <v>389</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>211</v>
+        <v>64</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>390</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>212</v>
+        <v>384</v>
       </c>
       <c r="E114" s="10" t="s">
-        <v>898</v>
+        <v>791</v>
       </c>
       <c r="F114" s="10" t="s">
-        <v>899</v>
+        <v>792</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A115" s="14" t="s">
-        <v>216</v>
+        <v>80</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>211</v>
+        <v>81</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>212</v>
+        <v>21</v>
       </c>
       <c r="E115" s="10" t="s">
-        <v>900</v>
+        <v>1022</v>
       </c>
       <c r="F115" s="10" t="s">
-        <v>901</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A116" s="14" t="s">
-        <v>218</v>
+        <v>288</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C116" s="3" t="s">
-        <v>211</v>
+      <c r="C116" s="2" t="s">
+        <v>289</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>212</v>
+        <v>8</v>
       </c>
       <c r="E116" s="10" t="s">
-        <v>902</v>
+        <v>849</v>
       </c>
       <c r="F116" s="10" t="s">
-        <v>903</v>
+        <v>850</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A117" s="14" t="s">
-        <v>224</v>
+        <v>288</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>211</v>
+        <v>228</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>289</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>212</v>
+        <v>8</v>
       </c>
       <c r="E117" s="10" t="s">
-        <v>904</v>
+        <v>849</v>
       </c>
       <c r="F117" s="10" t="s">
-        <v>905</v>
+        <v>850</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A118" s="14" t="s">
-        <v>345</v>
+        <v>100</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>212</v>
+        <v>33</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="E118" s="10" t="s">
-        <v>906</v>
+        <v>1002</v>
       </c>
       <c r="F118" s="10" t="s">
-        <v>907</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A119" s="14" t="s">
-        <v>346</v>
+        <v>100</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>212</v>
+        <v>102</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="E119" s="10" t="s">
-        <v>908</v>
+        <v>1004</v>
       </c>
       <c r="F119" s="10" t="s">
-        <v>909</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A120" s="14" t="s">
-        <v>351</v>
+        <v>100</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>212</v>
+        <v>102</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="E120" s="10" t="s">
-        <v>910</v>
+        <v>1006</v>
       </c>
       <c r="F120" s="10" t="s">
-        <v>911</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A121" s="14" t="s">
-        <v>448</v>
+        <v>100</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>211</v>
+        <v>102</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>212</v>
+        <v>95</v>
       </c>
       <c r="E121" s="10" t="s">
-        <v>912</v>
+        <v>1008</v>
       </c>
       <c r="F121" s="10" t="s">
-        <v>913</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A122" s="14" t="s">
-        <v>210</v>
+        <v>392</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>211</v>
+        <v>3</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>393</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>212</v>
+        <v>384</v>
       </c>
       <c r="E122" s="10" t="s">
-        <v>914</v>
+        <v>793</v>
       </c>
       <c r="F122" s="10" t="s">
-        <v>915</v>
+        <v>794</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A123" s="14" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>211</v>
+        <v>3</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>212</v>
+        <v>5</v>
       </c>
       <c r="E123" s="10" t="s">
-        <v>916</v>
-      </c>
-      <c r="F123" s="10" t="s">
-        <v>917</v>
+        <v>996</v>
+      </c>
+      <c r="F123" s="12" t="s">
+        <v>997</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A124" s="14" t="s">
-        <v>410</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>411</v>
+        <v>47</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>918</v>
+        <v>28</v>
       </c>
       <c r="E124" s="10" t="s">
-        <v>919</v>
+        <v>1037</v>
       </c>
       <c r="F124" s="10" t="s">
-        <v>920</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A125" s="14" t="s">
-        <v>198</v>
+        <v>437</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>199</v>
+        <v>64</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>438</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>207</v>
+        <v>439</v>
       </c>
       <c r="E125" s="10" t="s">
-        <v>921</v>
+        <v>757</v>
       </c>
       <c r="F125" s="10" t="s">
-        <v>922</v>
+        <v>758</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A126" s="14" t="s">
-        <v>77</v>
+        <v>326</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>33</v>
+        <v>228</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>4</v>
+        <v>327</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>5</v>
+        <v>323</v>
       </c>
       <c r="E126" s="10" t="s">
-        <v>923</v>
+        <v>821</v>
       </c>
       <c r="F126" s="10" t="s">
-        <v>924</v>
+        <v>822</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A127" s="14" t="s">
-        <v>117</v>
+        <v>50</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="E127" s="10" t="s">
-        <v>925</v>
+        <v>1039</v>
       </c>
       <c r="F127" s="10" t="s">
-        <v>926</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A128" s="14" t="s">
-        <v>119</v>
+        <v>445</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>4</v>
+        <v>442</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>5</v>
+        <v>443</v>
       </c>
       <c r="E128" s="10" t="s">
-        <v>927</v>
+        <v>747</v>
       </c>
       <c r="F128" s="10" t="s">
-        <v>928</v>
+        <v>748</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A129" s="14" t="s">
-        <v>19</v>
+        <v>441</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>4</v>
+        <v>442</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>5</v>
+        <v>443</v>
       </c>
       <c r="E129" s="10" t="s">
-        <v>929</v>
+        <v>749</v>
       </c>
       <c r="F129" s="10" t="s">
-        <v>930</v>
+        <v>750</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A130" s="14" t="s">
-        <v>122</v>
+        <v>445</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>4</v>
+        <v>442</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>5</v>
+        <v>443</v>
       </c>
       <c r="E130" s="10" t="s">
-        <v>931</v>
+        <v>751</v>
       </c>
       <c r="F130" s="10" t="s">
-        <v>932</v>
+        <v>752</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A131" s="14" t="s">
-        <v>124</v>
+        <v>445</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>5</v>
+        <v>442</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>443</v>
       </c>
       <c r="E131" s="10" t="s">
-        <v>933</v>
+        <v>753</v>
       </c>
       <c r="F131" s="10" t="s">
-        <v>934</v>
+        <v>754</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A132" s="14" t="s">
-        <v>77</v>
+        <v>445</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>4</v>
+        <v>442</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>5</v>
+        <v>443</v>
       </c>
       <c r="E132" s="10" t="s">
-        <v>935</v>
+        <v>755</v>
       </c>
       <c r="F132" s="10" t="s">
-        <v>936</v>
+        <v>756</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A133" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>4</v>
+        <v>522</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>1045</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>5</v>
+        <v>708</v>
       </c>
       <c r="E133" s="10" t="s">
-        <v>937</v>
+        <v>709</v>
       </c>
       <c r="F133" s="10" t="s">
-        <v>938</v>
+        <v>710</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A134" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>3</v>
+        <v>414</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>4</v>
+        <v>415</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>5</v>
+        <v>416</v>
       </c>
       <c r="E134" s="10" t="s">
-        <v>939</v>
+        <v>759</v>
       </c>
       <c r="F134" s="10" t="s">
-        <v>940</v>
+        <v>760</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A135" s="14" t="s">
-        <v>134</v>
+        <v>517</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>4</v>
+        <v>519</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="E135" s="10" t="s">
-        <v>941</v>
+        <v>741</v>
       </c>
       <c r="F135" s="10" t="s">
-        <v>942</v>
+        <v>742</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A136" s="14" t="s">
-        <v>19</v>
+        <v>517</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>4</v>
+        <v>519</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="E136" s="10" t="s">
-        <v>943</v>
+        <v>743</v>
       </c>
       <c r="F136" s="10" t="s">
-        <v>944</v>
+        <v>744</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A137" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>78</v>
+        <v>517</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>4</v>
+        <v>519</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="E137" s="10" t="s">
-        <v>945</v>
+        <v>745</v>
       </c>
       <c r="F137" s="10" t="s">
-        <v>946</v>
+        <v>746</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A138" s="14" t="s">
-        <v>137</v>
+        <v>420</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>4</v>
+        <v>418</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>5</v>
+        <v>416</v>
       </c>
       <c r="E138" s="10" t="s">
-        <v>947</v>
+        <v>761</v>
       </c>
       <c r="F138" s="10" t="s">
-        <v>948</v>
+        <v>762</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A139" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>88</v>
+        <v>425</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>4</v>
+        <v>418</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>5</v>
+        <v>416</v>
       </c>
       <c r="E139" s="10" t="s">
-        <v>949</v>
+        <v>763</v>
       </c>
       <c r="F139" s="10" t="s">
-        <v>950</v>
+        <v>764</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A140" s="14" t="s">
-        <v>147</v>
+        <v>420</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>4</v>
+        <v>418</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>5</v>
+        <v>416</v>
       </c>
       <c r="E140" s="10" t="s">
-        <v>951</v>
+        <v>765</v>
       </c>
       <c r="F140" s="10" t="s">
-        <v>952</v>
+        <v>766</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A141" s="14" t="s">
-        <v>151</v>
+        <v>425</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>4</v>
+        <v>418</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>5</v>
+        <v>416</v>
       </c>
       <c r="E141" s="10" t="s">
-        <v>953</v>
+        <v>767</v>
       </c>
       <c r="F141" s="10" t="s">
-        <v>954</v>
+        <v>768</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A142" s="14" t="s">
-        <v>155</v>
+        <v>420</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>4</v>
+        <v>418</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>5</v>
+        <v>416</v>
       </c>
       <c r="E142" s="10" t="s">
-        <v>955</v>
+        <v>769</v>
       </c>
       <c r="F142" s="10" t="s">
-        <v>956</v>
+        <v>770</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A143" s="14" t="s">
-        <v>141</v>
+        <v>420</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>4</v>
+        <v>418</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>5</v>
+        <v>416</v>
       </c>
       <c r="E143" s="10" t="s">
-        <v>957</v>
+        <v>771</v>
       </c>
       <c r="F143" s="10" t="s">
-        <v>958</v>
+        <v>772</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A144" s="14" t="s">
-        <v>159</v>
+        <v>425</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>4</v>
+        <v>418</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>5</v>
+        <v>416</v>
       </c>
       <c r="E144" s="10" t="s">
-        <v>959</v>
+        <v>773</v>
       </c>
       <c r="F144" s="10" t="s">
-        <v>960</v>
+        <v>774</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A145" s="14" t="s">
-        <v>161</v>
+        <v>429</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>4</v>
+        <v>418</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>5</v>
+        <v>416</v>
       </c>
       <c r="E145" s="10" t="s">
-        <v>961</v>
+        <v>775</v>
       </c>
       <c r="F145" s="10" t="s">
-        <v>962</v>
+        <v>776</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A146" s="14" t="s">
-        <v>19</v>
+        <v>432</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>4</v>
+        <v>418</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>5</v>
+        <v>416</v>
       </c>
       <c r="E146" s="10" t="s">
-        <v>963</v>
+        <v>777</v>
       </c>
       <c r="F146" s="10" t="s">
-        <v>964</v>
+        <v>778</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A147" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>112</v>
+        <v>420</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>4</v>
+        <v>418</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>5</v>
+        <v>416</v>
       </c>
       <c r="E147" s="10" t="s">
-        <v>965</v>
+        <v>779</v>
       </c>
       <c r="F147" s="10" t="s">
-        <v>966</v>
+        <v>780</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A148" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>112</v>
+        <v>425</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>4</v>
+        <v>418</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>5</v>
+        <v>416</v>
       </c>
       <c r="E148" s="10" t="s">
-        <v>967</v>
+        <v>781</v>
       </c>
       <c r="F148" s="10" t="s">
-        <v>968</v>
+        <v>782</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A149" s="14" t="s">
-        <v>165</v>
+        <v>14</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>112</v>
+        <v>3</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>4</v>
+        <v>1047</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E149" s="10" t="s">
-        <v>969</v>
+        <v>706</v>
       </c>
       <c r="F149" s="10" t="s">
-        <v>970</v>
+        <v>707</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A150" s="14" t="s">
-        <v>167</v>
+        <v>379</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>4</v>
+        <v>380</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>5</v>
+        <v>372</v>
       </c>
       <c r="E150" s="10" t="s">
-        <v>971</v>
+        <v>801</v>
       </c>
       <c r="F150" s="10" t="s">
-        <v>972</v>
+        <v>802</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A151" s="14" t="s">
-        <v>171</v>
+        <v>349</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>212</v>
       </c>
       <c r="E151" s="10" t="s">
-        <v>973</v>
+        <v>895</v>
       </c>
       <c r="F151" s="10" t="s">
-        <v>974</v>
+        <v>896</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A152" s="14" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>4</v>
+        <v>78</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>211</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>5</v>
+        <v>212</v>
       </c>
       <c r="E152" s="10" t="s">
-        <v>975</v>
+        <v>897</v>
       </c>
       <c r="F152" s="10" t="s">
-        <v>976</v>
+        <v>898</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A153" s="14" t="s">
-        <v>175</v>
+        <v>216</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>4</v>
+        <v>211</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>5</v>
+        <v>212</v>
       </c>
       <c r="E153" s="10" t="s">
-        <v>977</v>
+        <v>899</v>
       </c>
       <c r="F153" s="10" t="s">
-        <v>978</v>
+        <v>900</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A154" s="14" t="s">
-        <v>169</v>
+        <v>218</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>4</v>
+        <v>78</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>211</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>5</v>
+        <v>212</v>
       </c>
       <c r="E154" s="10" t="s">
-        <v>979</v>
+        <v>901</v>
       </c>
       <c r="F154" s="10" t="s">
-        <v>980</v>
+        <v>902</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A155" s="14" t="s">
-        <v>141</v>
+        <v>224</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>4</v>
+        <v>78</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>211</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>5</v>
+        <v>212</v>
       </c>
       <c r="E155" s="10" t="s">
-        <v>981</v>
+        <v>903</v>
       </c>
       <c r="F155" s="10" t="s">
-        <v>982</v>
+        <v>904</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A156" s="14" t="s">
-        <v>77</v>
+        <v>345</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>5</v>
+        <v>64</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>212</v>
       </c>
       <c r="E156" s="10" t="s">
-        <v>983</v>
+        <v>905</v>
       </c>
       <c r="F156" s="10" t="s">
-        <v>984</v>
+        <v>906</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A157" s="14" t="s">
-        <v>180</v>
+        <v>346</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>5</v>
+        <v>211</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>212</v>
       </c>
       <c r="E157" s="10" t="s">
-        <v>985</v>
+        <v>907</v>
       </c>
       <c r="F157" s="10" t="s">
-        <v>986</v>
+        <v>908</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A158" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="B158" s="3" t="s">
-        <v>6</v>
+        <v>351</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>4</v>
+        <v>211</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>5</v>
+        <v>212</v>
       </c>
       <c r="E158" s="10" t="s">
-        <v>987</v>
+        <v>909</v>
       </c>
       <c r="F158" s="10" t="s">
-        <v>988</v>
+        <v>910</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A159" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>6</v>
+        <v>448</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>4</v>
+        <v>211</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>5</v>
+        <v>212</v>
       </c>
       <c r="E159" s="10" t="s">
-        <v>989</v>
+        <v>911</v>
       </c>
       <c r="F159" s="10" t="s">
-        <v>990</v>
+        <v>912</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A160" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="B160" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>189</v>
+        <v>210</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>211</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>5</v>
+        <v>212</v>
       </c>
       <c r="E160" s="10" t="s">
-        <v>991</v>
+        <v>913</v>
       </c>
       <c r="F160" s="10" t="s">
-        <v>992</v>
+        <v>914</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A161" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="B161" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>189</v>
+        <v>224</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>211</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>5</v>
+        <v>212</v>
       </c>
       <c r="E161" s="10" t="s">
-        <v>991</v>
+        <v>915</v>
       </c>
       <c r="F161" s="10" t="s">
-        <v>992</v>
+        <v>916</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A162" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="B162" s="5" t="s">
-        <v>25</v>
+        <v>227</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>228</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>5</v>
+        <v>229</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>229</v>
       </c>
       <c r="E162" s="10" t="s">
-        <v>991</v>
+        <v>893</v>
       </c>
       <c r="F162" s="10" t="s">
-        <v>992</v>
+        <v>894</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A163" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="B163" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>189</v>
+        <v>533</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>534</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>5</v>
+        <v>535</v>
       </c>
       <c r="E163" s="10" t="s">
-        <v>991</v>
+        <v>698</v>
       </c>
       <c r="F163" s="10" t="s">
-        <v>992</v>
+        <v>699</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A164" s="14" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E164" s="10" t="s">
-        <v>993</v>
+        <v>21</v>
+      </c>
+      <c r="E164" s="11" t="s">
+        <v>1024</v>
       </c>
       <c r="F164" s="10" t="s">
-        <v>994</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A165" s="14" t="s">
-        <v>167</v>
+        <v>367</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>112</v>
+        <v>3</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>192</v>
+        <v>365</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E165" s="10" t="s">
-        <v>995</v>
-      </c>
-      <c r="F165" s="10" t="s">
-        <v>996</v>
+        <v>362</v>
+      </c>
+      <c r="E165" s="11" t="s">
+        <v>805</v>
+      </c>
+      <c r="F165" s="11" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A166" s="14" t="s">
-        <v>195</v>
+        <v>369</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>196</v>
+        <v>365</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E166" s="10" t="s">
-        <v>997</v>
-      </c>
-      <c r="F166" s="12" t="s">
-        <v>998</v>
+        <v>362</v>
+      </c>
+      <c r="E166" s="11" t="s">
+        <v>805</v>
+      </c>
+      <c r="F166" s="11" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A167" s="14" t="s">
-        <v>93</v>
+        <v>364</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>94</v>
+        <v>365</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E167" s="10" t="s">
-        <v>999</v>
-      </c>
-      <c r="F167" s="10" t="s">
-        <v>1000</v>
+        <v>362</v>
+      </c>
+      <c r="E167" s="11" t="s">
+        <v>807</v>
+      </c>
+      <c r="F167" s="11" t="s">
+        <v>808</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A168" s="14" t="s">
-        <v>97</v>
+        <v>395</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>98</v>
+        <v>396</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>95</v>
+        <v>384</v>
       </c>
       <c r="E168" s="10" t="s">
-        <v>1001</v>
+        <v>795</v>
       </c>
       <c r="F168" s="10" t="s">
-        <v>1002</v>
+        <v>796</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A169" s="14" t="s">
-        <v>100</v>
+        <v>295</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="E169" s="10" t="s">
-        <v>1003</v>
+        <v>851</v>
       </c>
       <c r="F169" s="10" t="s">
-        <v>1004</v>
+        <v>852</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A170" s="14" t="s">
-        <v>100</v>
+        <v>301</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="E170" s="10" t="s">
-        <v>1005</v>
+        <v>853</v>
       </c>
       <c r="F170" s="10" t="s">
-        <v>1006</v>
+        <v>854</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A171" s="14" t="s">
-        <v>100</v>
+        <v>305</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="E171" s="10" t="s">
-        <v>1007</v>
+        <v>855</v>
       </c>
       <c r="F171" s="10" t="s">
-        <v>1008</v>
+        <v>856</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A172" s="14" t="s">
-        <v>100</v>
+        <v>310</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="E172" s="10" t="s">
-        <v>1009</v>
+        <v>857</v>
       </c>
       <c r="F172" s="10" t="s">
-        <v>1010</v>
+        <v>858</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A173" s="14" t="s">
-        <v>87</v>
+        <v>319</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>89</v>
+        <v>7</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="E173" s="10" t="s">
-        <v>1011</v>
+        <v>859</v>
       </c>
       <c r="F173" s="10" t="s">
-        <v>1012</v>
+        <v>860</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A174" s="14" t="s">
-        <v>63</v>
+        <v>307</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E174" s="10" t="s">
-        <v>1013</v>
+        <v>861</v>
       </c>
       <c r="F174" s="10" t="s">
-        <v>1014</v>
+        <v>862</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A175" s="14" t="s">
-        <v>67</v>
+        <v>314</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E175" s="10" t="s">
-        <v>1015</v>
+        <v>863</v>
       </c>
       <c r="F175" s="10" t="s">
-        <v>1016</v>
+        <v>864</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A176" s="14" t="s">
-        <v>77</v>
+        <v>292</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E176" s="10" t="s">
-        <v>1017</v>
+        <v>865</v>
       </c>
       <c r="F176" s="10" t="s">
-        <v>1018</v>
+        <v>866</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A177" s="14" t="s">
-        <v>70</v>
+        <v>299</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C177" s="3" t="s">
-        <v>20</v>
+        <v>88</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E177" s="10" t="s">
-        <v>1019</v>
+        <v>867</v>
       </c>
       <c r="F177" s="10" t="s">
-        <v>1020</v>
+        <v>868</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A178" s="14" t="s">
-        <v>74</v>
+        <v>295</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E178" s="10" t="s">
-        <v>1021</v>
+        <v>869</v>
       </c>
       <c r="F178" s="10" t="s">
-        <v>1022</v>
+        <v>870</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A179" s="14" t="s">
-        <v>80</v>
+        <v>312</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E179" s="10" t="s">
-        <v>1023</v>
+        <v>871</v>
       </c>
       <c r="F179" s="10" t="s">
-        <v>1024</v>
+        <v>872</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A180" s="14" t="s">
-        <v>83</v>
+        <v>307</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>84</v>
+        <v>228</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E180" s="11" t="s">
-        <v>1025</v>
+        <v>8</v>
+      </c>
+      <c r="E180" s="10" t="s">
+        <v>873</v>
       </c>
       <c r="F180" s="10" t="s">
-        <v>1026</v>
+        <v>874</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A181" s="14" t="s">
-        <v>60</v>
+        <v>295</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>1027</v>
+        <v>7</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>28</v>
+        <v>8</v>
+      </c>
+      <c r="E181" s="10" t="s">
+        <v>875</v>
+      </c>
+      <c r="F181" s="10" t="s">
+        <v>876</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A182" s="14" t="s">
-        <v>37</v>
+        <v>295</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E182" s="10" t="s">
-        <v>1028</v>
+        <v>877</v>
       </c>
       <c r="F182" s="10" t="s">
-        <v>1029</v>
+        <v>878</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A183" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>33</v>
+        <v>303</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E183" s="10" t="s">
-        <v>1030</v>
+        <v>879</v>
       </c>
       <c r="F183" s="10" t="s">
-        <v>1031</v>
+        <v>880</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A184" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>78</v>
+        <v>316</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E184" s="10" t="s">
-        <v>1032</v>
+        <v>881</v>
       </c>
       <c r="F184" s="10" t="s">
-        <v>1033</v>
+        <v>882</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A185" s="14" t="s">
-        <v>56</v>
+        <v>538</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>228</v>
+        <v>78</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>58</v>
+        <v>539</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>28</v>
+        <v>540</v>
       </c>
       <c r="E185" s="10" t="s">
-        <v>1034</v>
+        <v>696</v>
       </c>
       <c r="F185" s="10" t="s">
-        <v>1035</v>
+        <v>697</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A186" s="14" t="s">
-        <v>44</v>
+        <v>231</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>45</v>
+        <v>232</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="E186" s="10" t="s">
-        <v>1036</v>
+        <v>889</v>
       </c>
       <c r="F186" s="10" t="s">
-        <v>1037</v>
+        <v>890</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A187" s="14" t="s">
-        <v>47</v>
+        <v>235</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C187" s="3" t="s">
-        <v>48</v>
+        <v>64</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>232</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="E187" s="10" t="s">
-        <v>1038</v>
+        <v>891</v>
       </c>
       <c r="F187" s="10" t="s">
-        <v>1039</v>
+        <v>892</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A188" s="14" t="s">
-        <v>50</v>
+        <v>329</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>52</v>
+        <v>330</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>28</v>
+        <v>336</v>
       </c>
       <c r="E188" s="10" t="s">
-        <v>1040</v>
+        <v>815</v>
       </c>
       <c r="F188" s="10" t="s">
-        <v>1041</v>
+        <v>816</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="13" x14ac:dyDescent="0.15">
@@ -19903,194 +19901,199 @@
       <c r="F1016" s="13"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F188" xr:uid="{E2DDC14C-0E2D-5944-B4CE-AD92D38045CE}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F188">
+      <sortCondition ref="C1:C188"/>
+    </sortState>
+  </autoFilter>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="A5" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="A6" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="A7" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="A8" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="A9" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="A10" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="A11" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink ref="A12" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
-    <hyperlink ref="A13" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
-    <hyperlink ref="A14" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
-    <hyperlink ref="A15" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
-    <hyperlink ref="A16" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
-    <hyperlink ref="A17" r:id="rId16" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
-    <hyperlink ref="A18" r:id="rId17" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
-    <hyperlink ref="A19" r:id="rId18" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
-    <hyperlink ref="A20" r:id="rId19" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
-    <hyperlink ref="A21" r:id="rId20" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
-    <hyperlink ref="A22" r:id="rId21" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
-    <hyperlink ref="A23" r:id="rId22" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
-    <hyperlink ref="A24" r:id="rId23" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
-    <hyperlink ref="A25" r:id="rId24" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
-    <hyperlink ref="A26" r:id="rId25" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
-    <hyperlink ref="A27" r:id="rId26" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
-    <hyperlink ref="A28" r:id="rId27" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
-    <hyperlink ref="A29" r:id="rId28" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
-    <hyperlink ref="A30" r:id="rId29" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
-    <hyperlink ref="A31" r:id="rId30" xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
-    <hyperlink ref="A32" r:id="rId31" xr:uid="{00000000-0004-0000-0200-00001E000000}"/>
-    <hyperlink ref="A33" r:id="rId32" xr:uid="{00000000-0004-0000-0200-00001F000000}"/>
-    <hyperlink ref="A34" r:id="rId33" xr:uid="{00000000-0004-0000-0200-000020000000}"/>
-    <hyperlink ref="A35" r:id="rId34" xr:uid="{00000000-0004-0000-0200-000021000000}"/>
-    <hyperlink ref="A36" r:id="rId35" xr:uid="{00000000-0004-0000-0200-000022000000}"/>
-    <hyperlink ref="A37" r:id="rId36" xr:uid="{00000000-0004-0000-0200-000023000000}"/>
-    <hyperlink ref="A38" r:id="rId37" xr:uid="{00000000-0004-0000-0200-000024000000}"/>
-    <hyperlink ref="A39" r:id="rId38" xr:uid="{00000000-0004-0000-0200-000025000000}"/>
-    <hyperlink ref="A40" r:id="rId39" xr:uid="{00000000-0004-0000-0200-000026000000}"/>
-    <hyperlink ref="A41" r:id="rId40" xr:uid="{00000000-0004-0000-0200-000027000000}"/>
-    <hyperlink ref="A42" r:id="rId41" xr:uid="{00000000-0004-0000-0200-000028000000}"/>
-    <hyperlink ref="A43" r:id="rId42" xr:uid="{00000000-0004-0000-0200-000029000000}"/>
-    <hyperlink ref="A44" r:id="rId43" xr:uid="{00000000-0004-0000-0200-00002A000000}"/>
-    <hyperlink ref="A45" r:id="rId44" xr:uid="{00000000-0004-0000-0200-00002B000000}"/>
-    <hyperlink ref="A46" r:id="rId45" xr:uid="{00000000-0004-0000-0200-00002C000000}"/>
-    <hyperlink ref="A47" r:id="rId46" xr:uid="{00000000-0004-0000-0200-00002D000000}"/>
-    <hyperlink ref="A48" r:id="rId47" xr:uid="{00000000-0004-0000-0200-00002E000000}"/>
-    <hyperlink ref="A49" r:id="rId48" xr:uid="{00000000-0004-0000-0200-00002F000000}"/>
-    <hyperlink ref="A50" r:id="rId49" xr:uid="{00000000-0004-0000-0200-000030000000}"/>
-    <hyperlink ref="A51" r:id="rId50" xr:uid="{00000000-0004-0000-0200-000031000000}"/>
-    <hyperlink ref="A52" r:id="rId51" xr:uid="{00000000-0004-0000-0200-000032000000}"/>
-    <hyperlink ref="A53" r:id="rId52" xr:uid="{00000000-0004-0000-0200-000033000000}"/>
-    <hyperlink ref="A54" r:id="rId53" xr:uid="{00000000-0004-0000-0200-000034000000}"/>
-    <hyperlink ref="A55" r:id="rId54" xr:uid="{00000000-0004-0000-0200-000035000000}"/>
-    <hyperlink ref="A56" r:id="rId55" xr:uid="{00000000-0004-0000-0200-000036000000}"/>
-    <hyperlink ref="A57" r:id="rId56" xr:uid="{00000000-0004-0000-0200-000037000000}"/>
-    <hyperlink ref="A58" r:id="rId57" xr:uid="{00000000-0004-0000-0200-000038000000}"/>
-    <hyperlink ref="A59" r:id="rId58" xr:uid="{00000000-0004-0000-0200-000039000000}"/>
-    <hyperlink ref="A60" r:id="rId59" xr:uid="{00000000-0004-0000-0200-00003A000000}"/>
-    <hyperlink ref="A61" r:id="rId60" xr:uid="{00000000-0004-0000-0200-00003B000000}"/>
-    <hyperlink ref="A62" r:id="rId61" xr:uid="{00000000-0004-0000-0200-00003C000000}"/>
-    <hyperlink ref="A63" r:id="rId62" xr:uid="{00000000-0004-0000-0200-00003D000000}"/>
-    <hyperlink ref="A64" r:id="rId63" xr:uid="{00000000-0004-0000-0200-00003E000000}"/>
-    <hyperlink ref="A65" r:id="rId64" xr:uid="{00000000-0004-0000-0200-00003F000000}"/>
-    <hyperlink ref="A66" r:id="rId65" xr:uid="{00000000-0004-0000-0200-000040000000}"/>
-    <hyperlink ref="A67" r:id="rId66" xr:uid="{00000000-0004-0000-0200-000041000000}"/>
-    <hyperlink ref="A68" r:id="rId67" xr:uid="{00000000-0004-0000-0200-000042000000}"/>
-    <hyperlink ref="A69" r:id="rId68" xr:uid="{00000000-0004-0000-0200-000043000000}"/>
-    <hyperlink ref="A70" r:id="rId69" xr:uid="{00000000-0004-0000-0200-000044000000}"/>
-    <hyperlink ref="A71" r:id="rId70" xr:uid="{00000000-0004-0000-0200-000045000000}"/>
-    <hyperlink ref="A72" r:id="rId71" xr:uid="{00000000-0004-0000-0200-000046000000}"/>
-    <hyperlink ref="A73" r:id="rId72" xr:uid="{00000000-0004-0000-0200-000047000000}"/>
-    <hyperlink ref="A74" r:id="rId73" xr:uid="{00000000-0004-0000-0200-000048000000}"/>
-    <hyperlink ref="A75" r:id="rId74" xr:uid="{00000000-0004-0000-0200-000049000000}"/>
-    <hyperlink ref="A76" r:id="rId75" xr:uid="{00000000-0004-0000-0200-00004A000000}"/>
-    <hyperlink ref="A77" r:id="rId76" xr:uid="{00000000-0004-0000-0200-00004B000000}"/>
-    <hyperlink ref="A78" r:id="rId77" xr:uid="{00000000-0004-0000-0200-00004C000000}"/>
-    <hyperlink ref="A79" r:id="rId78" xr:uid="{00000000-0004-0000-0200-00004D000000}"/>
-    <hyperlink ref="A80" r:id="rId79" xr:uid="{00000000-0004-0000-0200-00004E000000}"/>
-    <hyperlink ref="A81" r:id="rId80" xr:uid="{00000000-0004-0000-0200-00004F000000}"/>
-    <hyperlink ref="A82" r:id="rId81" xr:uid="{00000000-0004-0000-0200-000050000000}"/>
-    <hyperlink ref="A83" r:id="rId82" xr:uid="{00000000-0004-0000-0200-000051000000}"/>
-    <hyperlink ref="A84" r:id="rId83" xr:uid="{00000000-0004-0000-0200-000052000000}"/>
-    <hyperlink ref="A85" r:id="rId84" xr:uid="{00000000-0004-0000-0200-000053000000}"/>
-    <hyperlink ref="A86" r:id="rId85" xr:uid="{00000000-0004-0000-0200-000054000000}"/>
-    <hyperlink ref="A87" r:id="rId86" xr:uid="{00000000-0004-0000-0200-000055000000}"/>
-    <hyperlink ref="A88" r:id="rId87" xr:uid="{00000000-0004-0000-0200-000056000000}"/>
-    <hyperlink ref="A89" r:id="rId88" xr:uid="{00000000-0004-0000-0200-000057000000}"/>
-    <hyperlink ref="A90" r:id="rId89" xr:uid="{00000000-0004-0000-0200-000058000000}"/>
-    <hyperlink ref="A91" r:id="rId90" xr:uid="{00000000-0004-0000-0200-000059000000}"/>
-    <hyperlink ref="A92" r:id="rId91" xr:uid="{00000000-0004-0000-0200-00005A000000}"/>
-    <hyperlink ref="A93" r:id="rId92" xr:uid="{00000000-0004-0000-0200-00005B000000}"/>
-    <hyperlink ref="A94" r:id="rId93" xr:uid="{00000000-0004-0000-0200-00005C000000}"/>
-    <hyperlink ref="A95" r:id="rId94" xr:uid="{00000000-0004-0000-0200-00005D000000}"/>
-    <hyperlink ref="A96" r:id="rId95" xr:uid="{00000000-0004-0000-0200-00005E000000}"/>
-    <hyperlink ref="A97" r:id="rId96" xr:uid="{00000000-0004-0000-0200-00005F000000}"/>
-    <hyperlink ref="A98" r:id="rId97" xr:uid="{00000000-0004-0000-0200-000060000000}"/>
-    <hyperlink ref="A99" r:id="rId98" xr:uid="{00000000-0004-0000-0200-000061000000}"/>
-    <hyperlink ref="A100" r:id="rId99" xr:uid="{00000000-0004-0000-0200-000062000000}"/>
-    <hyperlink ref="A101" r:id="rId100" xr:uid="{00000000-0004-0000-0200-000063000000}"/>
-    <hyperlink ref="A102" r:id="rId101" xr:uid="{00000000-0004-0000-0200-000064000000}"/>
-    <hyperlink ref="A103" r:id="rId102" xr:uid="{00000000-0004-0000-0200-000065000000}"/>
-    <hyperlink ref="A104" r:id="rId103" xr:uid="{00000000-0004-0000-0200-000066000000}"/>
-    <hyperlink ref="A105" r:id="rId104" xr:uid="{00000000-0004-0000-0200-000067000000}"/>
-    <hyperlink ref="A106" r:id="rId105" xr:uid="{00000000-0004-0000-0200-000068000000}"/>
-    <hyperlink ref="A107" r:id="rId106" xr:uid="{00000000-0004-0000-0200-000069000000}"/>
-    <hyperlink ref="A108" r:id="rId107" xr:uid="{00000000-0004-0000-0200-00006A000000}"/>
-    <hyperlink ref="A109" r:id="rId108" xr:uid="{00000000-0004-0000-0200-00006B000000}"/>
-    <hyperlink ref="A110" r:id="rId109" xr:uid="{00000000-0004-0000-0200-00006C000000}"/>
-    <hyperlink ref="A111" r:id="rId110" xr:uid="{00000000-0004-0000-0200-00006D000000}"/>
-    <hyperlink ref="A112" r:id="rId111" xr:uid="{00000000-0004-0000-0200-00006E000000}"/>
-    <hyperlink ref="A113" r:id="rId112" xr:uid="{00000000-0004-0000-0200-00006F000000}"/>
-    <hyperlink ref="A114" r:id="rId113" xr:uid="{00000000-0004-0000-0200-000070000000}"/>
-    <hyperlink ref="A115" r:id="rId114" xr:uid="{00000000-0004-0000-0200-000071000000}"/>
-    <hyperlink ref="A116" r:id="rId115" xr:uid="{00000000-0004-0000-0200-000072000000}"/>
-    <hyperlink ref="A117" r:id="rId116" xr:uid="{00000000-0004-0000-0200-000073000000}"/>
-    <hyperlink ref="A118" r:id="rId117" xr:uid="{00000000-0004-0000-0200-000074000000}"/>
-    <hyperlink ref="A119" r:id="rId118" xr:uid="{00000000-0004-0000-0200-000075000000}"/>
-    <hyperlink ref="A120" r:id="rId119" xr:uid="{00000000-0004-0000-0200-000076000000}"/>
-    <hyperlink ref="A121" r:id="rId120" xr:uid="{00000000-0004-0000-0200-000077000000}"/>
-    <hyperlink ref="A122" r:id="rId121" xr:uid="{00000000-0004-0000-0200-000078000000}"/>
-    <hyperlink ref="A123" r:id="rId122" xr:uid="{00000000-0004-0000-0200-000079000000}"/>
-    <hyperlink ref="A124" r:id="rId123" xr:uid="{00000000-0004-0000-0200-00007A000000}"/>
-    <hyperlink ref="A125" r:id="rId124" xr:uid="{00000000-0004-0000-0200-00007B000000}"/>
-    <hyperlink ref="A126" r:id="rId125" xr:uid="{00000000-0004-0000-0200-000080000000}"/>
-    <hyperlink ref="A127" r:id="rId126" xr:uid="{00000000-0004-0000-0200-000081000000}"/>
-    <hyperlink ref="A128" r:id="rId127" xr:uid="{00000000-0004-0000-0200-000082000000}"/>
-    <hyperlink ref="A129" r:id="rId128" xr:uid="{00000000-0004-0000-0200-000083000000}"/>
-    <hyperlink ref="A130" r:id="rId129" xr:uid="{00000000-0004-0000-0200-000084000000}"/>
-    <hyperlink ref="A131" r:id="rId130" xr:uid="{00000000-0004-0000-0200-000085000000}"/>
-    <hyperlink ref="A132" r:id="rId131" xr:uid="{00000000-0004-0000-0200-000086000000}"/>
-    <hyperlink ref="A133" r:id="rId132" xr:uid="{00000000-0004-0000-0200-000087000000}"/>
-    <hyperlink ref="A134" r:id="rId133" xr:uid="{00000000-0004-0000-0200-000088000000}"/>
-    <hyperlink ref="A135" r:id="rId134" xr:uid="{00000000-0004-0000-0200-000089000000}"/>
-    <hyperlink ref="A136" r:id="rId135" xr:uid="{00000000-0004-0000-0200-00008A000000}"/>
-    <hyperlink ref="A137" r:id="rId136" xr:uid="{00000000-0004-0000-0200-00008B000000}"/>
-    <hyperlink ref="A138" r:id="rId137" xr:uid="{00000000-0004-0000-0200-00008C000000}"/>
-    <hyperlink ref="A139" r:id="rId138" xr:uid="{00000000-0004-0000-0200-00008D000000}"/>
-    <hyperlink ref="A140" r:id="rId139" xr:uid="{00000000-0004-0000-0200-00008E000000}"/>
-    <hyperlink ref="A141" r:id="rId140" xr:uid="{00000000-0004-0000-0200-00008F000000}"/>
-    <hyperlink ref="A142" r:id="rId141" xr:uid="{00000000-0004-0000-0200-000090000000}"/>
-    <hyperlink ref="A143" r:id="rId142" xr:uid="{00000000-0004-0000-0200-000091000000}"/>
-    <hyperlink ref="A144" r:id="rId143" xr:uid="{00000000-0004-0000-0200-000092000000}"/>
-    <hyperlink ref="A145" r:id="rId144" xr:uid="{00000000-0004-0000-0200-000093000000}"/>
-    <hyperlink ref="A146" r:id="rId145" xr:uid="{00000000-0004-0000-0200-000094000000}"/>
-    <hyperlink ref="A147" r:id="rId146" xr:uid="{00000000-0004-0000-0200-000095000000}"/>
-    <hyperlink ref="A148" r:id="rId147" xr:uid="{00000000-0004-0000-0200-000096000000}"/>
-    <hyperlink ref="A149" r:id="rId148" xr:uid="{00000000-0004-0000-0200-000097000000}"/>
-    <hyperlink ref="A150" r:id="rId149" xr:uid="{00000000-0004-0000-0200-000098000000}"/>
-    <hyperlink ref="A151" r:id="rId150" xr:uid="{00000000-0004-0000-0200-000099000000}"/>
-    <hyperlink ref="A152" r:id="rId151" xr:uid="{00000000-0004-0000-0200-00009A000000}"/>
-    <hyperlink ref="A153" r:id="rId152" xr:uid="{00000000-0004-0000-0200-00009B000000}"/>
-    <hyperlink ref="A154" r:id="rId153" xr:uid="{00000000-0004-0000-0200-00009C000000}"/>
-    <hyperlink ref="A155" r:id="rId154" xr:uid="{00000000-0004-0000-0200-00009D000000}"/>
-    <hyperlink ref="A156" r:id="rId155" xr:uid="{00000000-0004-0000-0200-00009E000000}"/>
-    <hyperlink ref="A157" r:id="rId156" xr:uid="{00000000-0004-0000-0200-00009F000000}"/>
-    <hyperlink ref="A158" r:id="rId157" xr:uid="{00000000-0004-0000-0200-0000A0000000}"/>
-    <hyperlink ref="A159" r:id="rId158" xr:uid="{00000000-0004-0000-0200-0000A1000000}"/>
-    <hyperlink ref="A160" r:id="rId159" xr:uid="{00000000-0004-0000-0200-0000A2000000}"/>
-    <hyperlink ref="A161" r:id="rId160" xr:uid="{00000000-0004-0000-0200-0000A3000000}"/>
-    <hyperlink ref="A162" r:id="rId161" xr:uid="{00000000-0004-0000-0200-0000A4000000}"/>
-    <hyperlink ref="A163" r:id="rId162" xr:uid="{00000000-0004-0000-0200-0000A5000000}"/>
-    <hyperlink ref="A164" r:id="rId163" xr:uid="{00000000-0004-0000-0200-0000A6000000}"/>
-    <hyperlink ref="A165" r:id="rId164" xr:uid="{00000000-0004-0000-0200-0000A7000000}"/>
-    <hyperlink ref="A166" r:id="rId165" xr:uid="{00000000-0004-0000-0200-0000A8000000}"/>
-    <hyperlink ref="A167" r:id="rId166" xr:uid="{00000000-0004-0000-0200-0000A9000000}"/>
-    <hyperlink ref="A168" r:id="rId167" xr:uid="{00000000-0004-0000-0200-0000AA000000}"/>
-    <hyperlink ref="A169" r:id="rId168" xr:uid="{00000000-0004-0000-0200-0000AB000000}"/>
-    <hyperlink ref="A170" r:id="rId169" xr:uid="{00000000-0004-0000-0200-0000AC000000}"/>
-    <hyperlink ref="A171" r:id="rId170" xr:uid="{00000000-0004-0000-0200-0000AD000000}"/>
-    <hyperlink ref="A172" r:id="rId171" xr:uid="{00000000-0004-0000-0200-0000AE000000}"/>
-    <hyperlink ref="A173" r:id="rId172" xr:uid="{00000000-0004-0000-0200-0000AF000000}"/>
-    <hyperlink ref="A174" r:id="rId173" xr:uid="{00000000-0004-0000-0200-0000B0000000}"/>
-    <hyperlink ref="A175" r:id="rId174" xr:uid="{00000000-0004-0000-0200-0000B1000000}"/>
-    <hyperlink ref="A176" r:id="rId175" xr:uid="{00000000-0004-0000-0200-0000B2000000}"/>
-    <hyperlink ref="A177" r:id="rId176" xr:uid="{00000000-0004-0000-0200-0000B3000000}"/>
-    <hyperlink ref="A178" r:id="rId177" xr:uid="{00000000-0004-0000-0200-0000B4000000}"/>
-    <hyperlink ref="A179" r:id="rId178" xr:uid="{00000000-0004-0000-0200-0000B5000000}"/>
-    <hyperlink ref="A180" r:id="rId179" xr:uid="{00000000-0004-0000-0200-0000B6000000}"/>
-    <hyperlink ref="A181" r:id="rId180" xr:uid="{00000000-0004-0000-0200-0000B8000000}"/>
-    <hyperlink ref="A182" r:id="rId181" xr:uid="{00000000-0004-0000-0200-0000B9000000}"/>
-    <hyperlink ref="A183" r:id="rId182" xr:uid="{00000000-0004-0000-0200-0000BA000000}"/>
-    <hyperlink ref="A184" r:id="rId183" xr:uid="{00000000-0004-0000-0200-0000BB000000}"/>
-    <hyperlink ref="A185" r:id="rId184" xr:uid="{00000000-0004-0000-0200-0000BC000000}"/>
-    <hyperlink ref="A186" r:id="rId185" xr:uid="{00000000-0004-0000-0200-0000BD000000}"/>
-    <hyperlink ref="A187" r:id="rId186" xr:uid="{00000000-0004-0000-0200-0000BE000000}"/>
-    <hyperlink ref="A188" r:id="rId187" xr:uid="{00000000-0004-0000-0200-0000BF000000}"/>
+    <hyperlink ref="A185" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="A163" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="A26" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="A30" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="A31" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="A149" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="A133" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="A11" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="A12" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="A14" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="A15" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="A16" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="A22" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="A93" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="A94" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="A95" r:id="rId16" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
+    <hyperlink ref="A96" r:id="rId17" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
+    <hyperlink ref="A97" r:id="rId18" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
+    <hyperlink ref="A98" r:id="rId19" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
+    <hyperlink ref="A99" r:id="rId20" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
+    <hyperlink ref="A100" r:id="rId21" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
+    <hyperlink ref="A101" r:id="rId22" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
+    <hyperlink ref="A102" r:id="rId23" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
+    <hyperlink ref="A103" r:id="rId24" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
+    <hyperlink ref="A104" r:id="rId25" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
+    <hyperlink ref="A135" r:id="rId26" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
+    <hyperlink ref="A136" r:id="rId27" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
+    <hyperlink ref="A137" r:id="rId28" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
+    <hyperlink ref="A128" r:id="rId29" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
+    <hyperlink ref="A129" r:id="rId30" xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
+    <hyperlink ref="A130" r:id="rId31" xr:uid="{00000000-0004-0000-0200-00001E000000}"/>
+    <hyperlink ref="A131" r:id="rId32" xr:uid="{00000000-0004-0000-0200-00001F000000}"/>
+    <hyperlink ref="A132" r:id="rId33" xr:uid="{00000000-0004-0000-0200-000020000000}"/>
+    <hyperlink ref="A125" r:id="rId34" xr:uid="{00000000-0004-0000-0200-000021000000}"/>
+    <hyperlink ref="A134" r:id="rId35" xr:uid="{00000000-0004-0000-0200-000022000000}"/>
+    <hyperlink ref="A138" r:id="rId36" xr:uid="{00000000-0004-0000-0200-000023000000}"/>
+    <hyperlink ref="A139" r:id="rId37" xr:uid="{00000000-0004-0000-0200-000024000000}"/>
+    <hyperlink ref="A140" r:id="rId38" xr:uid="{00000000-0004-0000-0200-000025000000}"/>
+    <hyperlink ref="A141" r:id="rId39" xr:uid="{00000000-0004-0000-0200-000026000000}"/>
+    <hyperlink ref="A142" r:id="rId40" xr:uid="{00000000-0004-0000-0200-000027000000}"/>
+    <hyperlink ref="A143" r:id="rId41" xr:uid="{00000000-0004-0000-0200-000028000000}"/>
+    <hyperlink ref="A144" r:id="rId42" xr:uid="{00000000-0004-0000-0200-000029000000}"/>
+    <hyperlink ref="A145" r:id="rId43" xr:uid="{00000000-0004-0000-0200-00002A000000}"/>
+    <hyperlink ref="A146" r:id="rId44" xr:uid="{00000000-0004-0000-0200-00002B000000}"/>
+    <hyperlink ref="A147" r:id="rId45" xr:uid="{00000000-0004-0000-0200-00002C000000}"/>
+    <hyperlink ref="A148" r:id="rId46" xr:uid="{00000000-0004-0000-0200-00002D000000}"/>
+    <hyperlink ref="A79" r:id="rId47" xr:uid="{00000000-0004-0000-0200-00002E000000}"/>
+    <hyperlink ref="A3" r:id="rId48" xr:uid="{00000000-0004-0000-0200-00002F000000}"/>
+    <hyperlink ref="A24" r:id="rId49" xr:uid="{00000000-0004-0000-0200-000030000000}"/>
+    <hyperlink ref="A33" r:id="rId50" xr:uid="{00000000-0004-0000-0200-000031000000}"/>
+    <hyperlink ref="A114" r:id="rId51" xr:uid="{00000000-0004-0000-0200-000032000000}"/>
+    <hyperlink ref="A122" r:id="rId52" xr:uid="{00000000-0004-0000-0200-000033000000}"/>
+    <hyperlink ref="A168" r:id="rId53" xr:uid="{00000000-0004-0000-0200-000034000000}"/>
+    <hyperlink ref="A6" r:id="rId54" xr:uid="{00000000-0004-0000-0200-000035000000}"/>
+    <hyperlink ref="A7" r:id="rId55" xr:uid="{00000000-0004-0000-0200-000036000000}"/>
+    <hyperlink ref="A72" r:id="rId56" xr:uid="{00000000-0004-0000-0200-000037000000}"/>
+    <hyperlink ref="A150" r:id="rId57" xr:uid="{00000000-0004-0000-0200-000038000000}"/>
+    <hyperlink ref="A2" r:id="rId58" xr:uid="{00000000-0004-0000-0200-000039000000}"/>
+    <hyperlink ref="A165" r:id="rId59" xr:uid="{00000000-0004-0000-0200-00003A000000}"/>
+    <hyperlink ref="A166" r:id="rId60" xr:uid="{00000000-0004-0000-0200-00003B000000}"/>
+    <hyperlink ref="A167" r:id="rId61" xr:uid="{00000000-0004-0000-0200-00003C000000}"/>
+    <hyperlink ref="A29" r:id="rId62" xr:uid="{00000000-0004-0000-0200-00003D000000}"/>
+    <hyperlink ref="A9" r:id="rId63" xr:uid="{00000000-0004-0000-0200-00003E000000}"/>
+    <hyperlink ref="A73" r:id="rId64" xr:uid="{00000000-0004-0000-0200-00003F000000}"/>
+    <hyperlink ref="A74" r:id="rId65" xr:uid="{00000000-0004-0000-0200-000040000000}"/>
+    <hyperlink ref="A75" r:id="rId66" xr:uid="{00000000-0004-0000-0200-000041000000}"/>
+    <hyperlink ref="A188" r:id="rId67" xr:uid="{00000000-0004-0000-0200-000042000000}"/>
+    <hyperlink ref="A77" r:id="rId68" xr:uid="{00000000-0004-0000-0200-000043000000}"/>
+    <hyperlink ref="A78" r:id="rId69" xr:uid="{00000000-0004-0000-0200-000044000000}"/>
+    <hyperlink ref="A126" r:id="rId70" xr:uid="{00000000-0004-0000-0200-000045000000}"/>
+    <hyperlink ref="A4" r:id="rId71" xr:uid="{00000000-0004-0000-0200-000046000000}"/>
+    <hyperlink ref="A5" r:id="rId72" xr:uid="{00000000-0004-0000-0200-000047000000}"/>
+    <hyperlink ref="A17" r:id="rId73" xr:uid="{00000000-0004-0000-0200-000048000000}"/>
+    <hyperlink ref="A18" r:id="rId74" xr:uid="{00000000-0004-0000-0200-000049000000}"/>
+    <hyperlink ref="A19" r:id="rId75" xr:uid="{00000000-0004-0000-0200-00004A000000}"/>
+    <hyperlink ref="A20" r:id="rId76" xr:uid="{00000000-0004-0000-0200-00004B000000}"/>
+    <hyperlink ref="A25" r:id="rId77" xr:uid="{00000000-0004-0000-0200-00004C000000}"/>
+    <hyperlink ref="A32" r:id="rId78" xr:uid="{00000000-0004-0000-0200-00004D000000}"/>
+    <hyperlink ref="A86" r:id="rId79" xr:uid="{00000000-0004-0000-0200-00004E000000}"/>
+    <hyperlink ref="A105" r:id="rId80" xr:uid="{00000000-0004-0000-0200-00004F000000}"/>
+    <hyperlink ref="A106" r:id="rId81" xr:uid="{00000000-0004-0000-0200-000050000000}"/>
+    <hyperlink ref="A107" r:id="rId82" xr:uid="{00000000-0004-0000-0200-000051000000}"/>
+    <hyperlink ref="A108" r:id="rId83" xr:uid="{00000000-0004-0000-0200-000052000000}"/>
+    <hyperlink ref="A109" r:id="rId84" xr:uid="{00000000-0004-0000-0200-000053000000}"/>
+    <hyperlink ref="A111" r:id="rId85" xr:uid="{00000000-0004-0000-0200-000054000000}"/>
+    <hyperlink ref="A112" r:id="rId86" xr:uid="{00000000-0004-0000-0200-000055000000}"/>
+    <hyperlink ref="A113" r:id="rId87" xr:uid="{00000000-0004-0000-0200-000056000000}"/>
+    <hyperlink ref="A116" r:id="rId88" xr:uid="{00000000-0004-0000-0200-000057000000}"/>
+    <hyperlink ref="A117" r:id="rId89" xr:uid="{00000000-0004-0000-0200-000058000000}"/>
+    <hyperlink ref="A169" r:id="rId90" xr:uid="{00000000-0004-0000-0200-000059000000}"/>
+    <hyperlink ref="A170" r:id="rId91" xr:uid="{00000000-0004-0000-0200-00005A000000}"/>
+    <hyperlink ref="A171" r:id="rId92" xr:uid="{00000000-0004-0000-0200-00005B000000}"/>
+    <hyperlink ref="A172" r:id="rId93" xr:uid="{00000000-0004-0000-0200-00005C000000}"/>
+    <hyperlink ref="A173" r:id="rId94" xr:uid="{00000000-0004-0000-0200-00005D000000}"/>
+    <hyperlink ref="A174" r:id="rId95" xr:uid="{00000000-0004-0000-0200-00005E000000}"/>
+    <hyperlink ref="A175" r:id="rId96" xr:uid="{00000000-0004-0000-0200-00005F000000}"/>
+    <hyperlink ref="A176" r:id="rId97" xr:uid="{00000000-0004-0000-0200-000060000000}"/>
+    <hyperlink ref="A177" r:id="rId98" xr:uid="{00000000-0004-0000-0200-000061000000}"/>
+    <hyperlink ref="A178" r:id="rId99" xr:uid="{00000000-0004-0000-0200-000062000000}"/>
+    <hyperlink ref="A179" r:id="rId100" xr:uid="{00000000-0004-0000-0200-000063000000}"/>
+    <hyperlink ref="A180" r:id="rId101" xr:uid="{00000000-0004-0000-0200-000064000000}"/>
+    <hyperlink ref="A181" r:id="rId102" xr:uid="{00000000-0004-0000-0200-000065000000}"/>
+    <hyperlink ref="A182" r:id="rId103" xr:uid="{00000000-0004-0000-0200-000066000000}"/>
+    <hyperlink ref="A183" r:id="rId104" xr:uid="{00000000-0004-0000-0200-000067000000}"/>
+    <hyperlink ref="A184" r:id="rId105" xr:uid="{00000000-0004-0000-0200-000068000000}"/>
+    <hyperlink ref="A80" r:id="rId106" xr:uid="{00000000-0004-0000-0200-000069000000}"/>
+    <hyperlink ref="A88" r:id="rId107" xr:uid="{00000000-0004-0000-0200-00006A000000}"/>
+    <hyperlink ref="A90" r:id="rId108" xr:uid="{00000000-0004-0000-0200-00006B000000}"/>
+    <hyperlink ref="A186" r:id="rId109" xr:uid="{00000000-0004-0000-0200-00006C000000}"/>
+    <hyperlink ref="A187" r:id="rId110" xr:uid="{00000000-0004-0000-0200-00006D000000}"/>
+    <hyperlink ref="A162" r:id="rId111" xr:uid="{00000000-0004-0000-0200-00006E000000}"/>
+    <hyperlink ref="A151" r:id="rId112" xr:uid="{00000000-0004-0000-0200-00006F000000}"/>
+    <hyperlink ref="A152" r:id="rId113" xr:uid="{00000000-0004-0000-0200-000070000000}"/>
+    <hyperlink ref="A153" r:id="rId114" xr:uid="{00000000-0004-0000-0200-000071000000}"/>
+    <hyperlink ref="A154" r:id="rId115" xr:uid="{00000000-0004-0000-0200-000072000000}"/>
+    <hyperlink ref="A155" r:id="rId116" xr:uid="{00000000-0004-0000-0200-000073000000}"/>
+    <hyperlink ref="A156" r:id="rId117" xr:uid="{00000000-0004-0000-0200-000074000000}"/>
+    <hyperlink ref="A157" r:id="rId118" xr:uid="{00000000-0004-0000-0200-000075000000}"/>
+    <hyperlink ref="A158" r:id="rId119" xr:uid="{00000000-0004-0000-0200-000076000000}"/>
+    <hyperlink ref="A159" r:id="rId120" xr:uid="{00000000-0004-0000-0200-000077000000}"/>
+    <hyperlink ref="A160" r:id="rId121" xr:uid="{00000000-0004-0000-0200-000078000000}"/>
+    <hyperlink ref="A161" r:id="rId122" xr:uid="{00000000-0004-0000-0200-000079000000}"/>
+    <hyperlink ref="A89" r:id="rId123" xr:uid="{00000000-0004-0000-0200-00007A000000}"/>
+    <hyperlink ref="A8" r:id="rId124" xr:uid="{00000000-0004-0000-0200-00007B000000}"/>
+    <hyperlink ref="A34" r:id="rId125" xr:uid="{00000000-0004-0000-0200-000080000000}"/>
+    <hyperlink ref="A35" r:id="rId126" xr:uid="{00000000-0004-0000-0200-000081000000}"/>
+    <hyperlink ref="A36" r:id="rId127" xr:uid="{00000000-0004-0000-0200-000082000000}"/>
+    <hyperlink ref="A37" r:id="rId128" xr:uid="{00000000-0004-0000-0200-000083000000}"/>
+    <hyperlink ref="A38" r:id="rId129" xr:uid="{00000000-0004-0000-0200-000084000000}"/>
+    <hyperlink ref="A39" r:id="rId130" xr:uid="{00000000-0004-0000-0200-000085000000}"/>
+    <hyperlink ref="A40" r:id="rId131" xr:uid="{00000000-0004-0000-0200-000086000000}"/>
+    <hyperlink ref="A41" r:id="rId132" xr:uid="{00000000-0004-0000-0200-000087000000}"/>
+    <hyperlink ref="A42" r:id="rId133" xr:uid="{00000000-0004-0000-0200-000088000000}"/>
+    <hyperlink ref="A43" r:id="rId134" xr:uid="{00000000-0004-0000-0200-000089000000}"/>
+    <hyperlink ref="A44" r:id="rId135" xr:uid="{00000000-0004-0000-0200-00008A000000}"/>
+    <hyperlink ref="A45" r:id="rId136" xr:uid="{00000000-0004-0000-0200-00008B000000}"/>
+    <hyperlink ref="A46" r:id="rId137" xr:uid="{00000000-0004-0000-0200-00008C000000}"/>
+    <hyperlink ref="A47" r:id="rId138" xr:uid="{00000000-0004-0000-0200-00008D000000}"/>
+    <hyperlink ref="A48" r:id="rId139" xr:uid="{00000000-0004-0000-0200-00008E000000}"/>
+    <hyperlink ref="A49" r:id="rId140" xr:uid="{00000000-0004-0000-0200-00008F000000}"/>
+    <hyperlink ref="A50" r:id="rId141" xr:uid="{00000000-0004-0000-0200-000090000000}"/>
+    <hyperlink ref="A51" r:id="rId142" xr:uid="{00000000-0004-0000-0200-000091000000}"/>
+    <hyperlink ref="A52" r:id="rId143" xr:uid="{00000000-0004-0000-0200-000092000000}"/>
+    <hyperlink ref="A53" r:id="rId144" xr:uid="{00000000-0004-0000-0200-000093000000}"/>
+    <hyperlink ref="A54" r:id="rId145" xr:uid="{00000000-0004-0000-0200-000094000000}"/>
+    <hyperlink ref="A55" r:id="rId146" xr:uid="{00000000-0004-0000-0200-000095000000}"/>
+    <hyperlink ref="A56" r:id="rId147" xr:uid="{00000000-0004-0000-0200-000096000000}"/>
+    <hyperlink ref="A57" r:id="rId148" xr:uid="{00000000-0004-0000-0200-000097000000}"/>
+    <hyperlink ref="A58" r:id="rId149" xr:uid="{00000000-0004-0000-0200-000098000000}"/>
+    <hyperlink ref="A59" r:id="rId150" xr:uid="{00000000-0004-0000-0200-000099000000}"/>
+    <hyperlink ref="A60" r:id="rId151" xr:uid="{00000000-0004-0000-0200-00009A000000}"/>
+    <hyperlink ref="A61" r:id="rId152" xr:uid="{00000000-0004-0000-0200-00009B000000}"/>
+    <hyperlink ref="A62" r:id="rId153" xr:uid="{00000000-0004-0000-0200-00009C000000}"/>
+    <hyperlink ref="A63" r:id="rId154" xr:uid="{00000000-0004-0000-0200-00009D000000}"/>
+    <hyperlink ref="A64" r:id="rId155" xr:uid="{00000000-0004-0000-0200-00009E000000}"/>
+    <hyperlink ref="A65" r:id="rId156" xr:uid="{00000000-0004-0000-0200-00009F000000}"/>
+    <hyperlink ref="A66" r:id="rId157" xr:uid="{00000000-0004-0000-0200-0000A0000000}"/>
+    <hyperlink ref="A67" r:id="rId158" xr:uid="{00000000-0004-0000-0200-0000A1000000}"/>
+    <hyperlink ref="A68" r:id="rId159" xr:uid="{00000000-0004-0000-0200-0000A2000000}"/>
+    <hyperlink ref="A69" r:id="rId160" xr:uid="{00000000-0004-0000-0200-0000A3000000}"/>
+    <hyperlink ref="A70" r:id="rId161" xr:uid="{00000000-0004-0000-0200-0000A4000000}"/>
+    <hyperlink ref="A71" r:id="rId162" xr:uid="{00000000-0004-0000-0200-0000A5000000}"/>
+    <hyperlink ref="A91" r:id="rId163" xr:uid="{00000000-0004-0000-0200-0000A6000000}"/>
+    <hyperlink ref="A92" r:id="rId164" xr:uid="{00000000-0004-0000-0200-0000A7000000}"/>
+    <hyperlink ref="A123" r:id="rId165" xr:uid="{00000000-0004-0000-0200-0000A8000000}"/>
+    <hyperlink ref="A76" r:id="rId166" xr:uid="{00000000-0004-0000-0200-0000A9000000}"/>
+    <hyperlink ref="A87" r:id="rId167" xr:uid="{00000000-0004-0000-0200-0000AA000000}"/>
+    <hyperlink ref="A118" r:id="rId168" xr:uid="{00000000-0004-0000-0200-0000AB000000}"/>
+    <hyperlink ref="A119" r:id="rId169" xr:uid="{00000000-0004-0000-0200-0000AC000000}"/>
+    <hyperlink ref="A120" r:id="rId170" xr:uid="{00000000-0004-0000-0200-0000AD000000}"/>
+    <hyperlink ref="A121" r:id="rId171" xr:uid="{00000000-0004-0000-0200-0000AE000000}"/>
+    <hyperlink ref="A28" r:id="rId172" xr:uid="{00000000-0004-0000-0200-0000AF000000}"/>
+    <hyperlink ref="A10" r:id="rId173" xr:uid="{00000000-0004-0000-0200-0000B0000000}"/>
+    <hyperlink ref="A13" r:id="rId174" xr:uid="{00000000-0004-0000-0200-0000B1000000}"/>
+    <hyperlink ref="A81" r:id="rId175" xr:uid="{00000000-0004-0000-0200-0000B2000000}"/>
+    <hyperlink ref="A82" r:id="rId176" xr:uid="{00000000-0004-0000-0200-0000B3000000}"/>
+    <hyperlink ref="A83" r:id="rId177" xr:uid="{00000000-0004-0000-0200-0000B4000000}"/>
+    <hyperlink ref="A115" r:id="rId178" xr:uid="{00000000-0004-0000-0200-0000B5000000}"/>
+    <hyperlink ref="A164" r:id="rId179" xr:uid="{00000000-0004-0000-0200-0000B6000000}"/>
+    <hyperlink ref="A21" r:id="rId180" xr:uid="{00000000-0004-0000-0200-0000B8000000}"/>
+    <hyperlink ref="A23" r:id="rId181" xr:uid="{00000000-0004-0000-0200-0000B9000000}"/>
+    <hyperlink ref="A27" r:id="rId182" xr:uid="{00000000-0004-0000-0200-0000BA000000}"/>
+    <hyperlink ref="A84" r:id="rId183" xr:uid="{00000000-0004-0000-0200-0000BB000000}"/>
+    <hyperlink ref="A85" r:id="rId184" xr:uid="{00000000-0004-0000-0200-0000BC000000}"/>
+    <hyperlink ref="A110" r:id="rId185" xr:uid="{00000000-0004-0000-0200-0000BD000000}"/>
+    <hyperlink ref="A124" r:id="rId186" xr:uid="{00000000-0004-0000-0200-0000BE000000}"/>
+    <hyperlink ref="A127" r:id="rId187" xr:uid="{00000000-0004-0000-0200-0000BF000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId188"/>
